--- a/nodes_source_analyses/energy/energy_local_electrolysis_hydrogen.converter.xlsx
+++ b/nodes_source_analyses/energy/energy_local_electrolysis_hydrogen.converter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="17460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="19200" yWindow="-20" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="218">
   <si>
     <t>Source</t>
   </si>
@@ -377,9 +377,6 @@
     <t>construction time</t>
   </si>
   <si>
-    <t>Hydrogen output capacity</t>
-  </si>
-  <si>
     <t>DOE: Hydrogen and Fuel cells program</t>
   </si>
   <si>
@@ -438,21 +435,6 @@
   </si>
   <si>
     <t>variable operating and maintenance costs per FLH</t>
-  </si>
-  <si>
-    <r>
-      <t>variable_operation_and_maintenance_costs_per_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>flh</t>
-    </r>
   </si>
   <si>
     <t>euro/flh</t>
@@ -497,9 +479,6 @@
     <t>Installation costs</t>
   </si>
   <si>
-    <t>decommisioning_costs</t>
-  </si>
-  <si>
     <t>Decommissioning costs</t>
   </si>
   <si>
@@ -763,6 +742,40 @@
   <si>
     <t>Assumption</t>
   </si>
+  <si>
+    <t>typical_input_capacity</t>
+  </si>
+  <si>
+    <t>Typical_input_capacity</t>
+  </si>
+  <si>
+    <r>
+      <t>decommi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sioning_costs</t>
+    </r>
+  </si>
+  <si>
+    <t>variable_operation_and_maintenance_costs_per_full_load_hour</t>
+  </si>
 </sst>
 </file>
 
@@ -776,12 +789,26 @@
     <numFmt numFmtId="168" formatCode="0.000000"/>
     <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1336,901 +1363,906 @@
   </borders>
   <cellStyleXfs count="597">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="23" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="23" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="21" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="34" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="34" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="36" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="36" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="36" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="34" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4083,7 +4115,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4237,7 +4269,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4259,36 +4291,36 @@
       <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="186" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="185"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="188"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="186"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="188"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="191"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="186"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="188"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="191"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="189"/>
-      <c r="C5" s="190"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="191"/>
+      <c r="B5" s="192"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="194"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
@@ -4395,7 +4427,7 @@
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="171" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J13" s="14"/>
       <c r="L13" s="35"/>
@@ -4403,23 +4435,23 @@
     <row r="14" spans="1:12" ht="16" thickBot="1">
       <c r="A14" s="113"/>
       <c r="B14" s="114"/>
-      <c r="C14" s="110" t="s">
-        <v>64</v>
+      <c r="C14" s="184" t="s">
+        <v>214</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>63</v>
       </c>
       <c r="E14" s="107">
         <f>'Research data'!H9</f>
-        <v>0.49346643518518518</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="F14" s="110"/>
-      <c r="G14" s="110" t="s">
-        <v>100</v>
+      <c r="G14" s="184" t="s">
+        <v>215</v>
       </c>
       <c r="H14" s="110"/>
       <c r="I14" s="158" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J14" s="116"/>
       <c r="K14" s="26"/>
@@ -4459,7 +4491,7 @@
       <c r="G16" s="110"/>
       <c r="H16" s="110"/>
       <c r="I16" s="171" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J16" s="116"/>
       <c r="K16" s="36"/>
@@ -4467,7 +4499,7 @@
     <row r="17" spans="1:11" ht="16" thickBot="1">
       <c r="B17" s="114"/>
       <c r="C17" s="150" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="107">
@@ -4476,11 +4508,11 @@
       </c>
       <c r="F17" s="110"/>
       <c r="G17" s="150" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H17" s="110"/>
       <c r="I17" s="112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J17" s="116"/>
     </row>
@@ -4525,7 +4557,7 @@
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="171" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J20" s="96"/>
     </row>
@@ -4538,8 +4570,8 @@
         <v>53</v>
       </c>
       <c r="E21" s="41">
-        <f>'Research data'!H21</f>
-        <v>0</v>
+        <f>'Research data'!H20</f>
+        <v>20396.612649999999</v>
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="39" t="s">
@@ -4547,17 +4579,17 @@
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="171" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J21" s="96"/>
     </row>
     <row r="22" spans="1:11" ht="16" thickBot="1">
       <c r="B22" s="139"/>
-      <c r="C22" s="140" t="s">
-        <v>121</v>
+      <c r="C22" s="185" t="s">
+        <v>217</v>
       </c>
       <c r="D22" s="141" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E22" s="107">
         <f>'Research data'!H23</f>
@@ -4565,11 +4597,11 @@
       </c>
       <c r="F22" s="142"/>
       <c r="G22" s="140" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H22" s="142"/>
       <c r="I22" s="171" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J22" s="143"/>
     </row>
@@ -4577,7 +4609,7 @@
       <c r="A23" s="144"/>
       <c r="B23" s="146"/>
       <c r="C23" s="147" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D23" s="141"/>
       <c r="E23" s="107">
@@ -4586,7 +4618,7 @@
       </c>
       <c r="F23" s="147"/>
       <c r="G23" s="147" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H23" s="147"/>
       <c r="I23" s="180" t="s">
@@ -4598,7 +4630,7 @@
       <c r="A24" s="144"/>
       <c r="B24" s="146"/>
       <c r="C24" s="147" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D24" s="141"/>
       <c r="E24" s="107">
@@ -4607,7 +4639,7 @@
       </c>
       <c r="F24" s="147"/>
       <c r="G24" s="147" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H24" s="147"/>
       <c r="I24" s="180" t="s">
@@ -4619,8 +4651,8 @@
     <row r="25" spans="1:11" ht="16" thickBot="1">
       <c r="A25" s="144"/>
       <c r="B25" s="146"/>
-      <c r="C25" s="147" t="s">
-        <v>132</v>
+      <c r="C25" s="185" t="s">
+        <v>216</v>
       </c>
       <c r="D25" s="141"/>
       <c r="E25" s="107">
@@ -4629,11 +4661,11 @@
       </c>
       <c r="F25" s="147"/>
       <c r="G25" s="147" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H25" s="147"/>
       <c r="I25" s="171" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J25" s="148"/>
       <c r="K25" s="144"/>
@@ -4642,7 +4674,7 @@
       <c r="A26" s="144"/>
       <c r="B26" s="146"/>
       <c r="C26" s="147" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D26" s="141"/>
       <c r="E26" s="107">
@@ -4651,7 +4683,7 @@
       </c>
       <c r="F26" s="147"/>
       <c r="G26" s="145" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H26" s="147"/>
       <c r="I26" s="180" t="s">
@@ -4678,7 +4710,7 @@
       </c>
       <c r="H27" s="110"/>
       <c r="I27" s="179" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J27" s="116"/>
       <c r="K27" s="144"/>
@@ -4747,7 +4779,7 @@
       </c>
       <c r="H31" s="110"/>
       <c r="I31" s="172" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J31" s="116"/>
     </row>
@@ -4770,7 +4802,7 @@
       </c>
       <c r="H32" s="110"/>
       <c r="I32" s="172" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J32" s="116"/>
     </row>
@@ -4793,7 +4825,7 @@
       </c>
       <c r="H33" s="110"/>
       <c r="I33" s="179" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J33" s="116"/>
     </row>
@@ -4982,8 +5014,8 @@
   </sheetPr>
   <dimension ref="A2:W42"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5059,19 +5091,19 @@
       </c>
       <c r="K4" s="93"/>
       <c r="L4" s="93" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M4" s="93"/>
       <c r="N4" s="93" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O4" s="93"/>
       <c r="P4" s="93" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="93"/>
       <c r="R4" s="93" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="S4" s="93"/>
       <c r="T4" s="93" t="s">
@@ -5177,8 +5209,8 @@
     </row>
     <row r="9" spans="1:23" ht="16" thickBot="1">
       <c r="B9" s="45"/>
-      <c r="C9" s="111" t="s">
-        <v>64</v>
+      <c r="C9" s="183" t="s">
+        <v>214</v>
       </c>
       <c r="D9" s="52"/>
       <c r="E9" s="52"/>
@@ -5187,8 +5219,8 @@
       </c>
       <c r="G9" s="94"/>
       <c r="H9" s="106">
-        <f>P9</f>
-        <v>0.49346643518518518</v>
+        <f>P9/H8</f>
+        <v>0.73958333333333337</v>
       </c>
       <c r="I9" s="50"/>
       <c r="K9" s="50"/>
@@ -5317,7 +5349,7 @@
       <c r="R13" s="113"/>
       <c r="S13" s="113"/>
       <c r="T13" s="173" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="U13" s="113"/>
     </row>
@@ -5347,7 +5379,7 @@
       <c r="R14" s="113"/>
       <c r="S14" s="113"/>
       <c r="T14" s="173" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="U14" s="113"/>
     </row>
@@ -5377,7 +5409,7 @@
       <c r="R15" s="113"/>
       <c r="S15" s="113"/>
       <c r="T15" s="173" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="U15" s="113"/>
     </row>
@@ -5479,7 +5511,7 @@
         <v>20396.612649999999</v>
       </c>
       <c r="T20" s="159" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="16" thickBot="1">
@@ -5503,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="135" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="16" thickBot="1">
@@ -5523,7 +5555,7 @@
       <c r="L22" s="127"/>
       <c r="M22" s="119"/>
       <c r="T22" s="135" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="16" thickBot="1">
@@ -5543,14 +5575,14 @@
       <c r="L23" s="128"/>
       <c r="M23" s="119"/>
       <c r="T23" s="135" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="16" thickBot="1">
       <c r="A24" s="113"/>
       <c r="B24" s="114"/>
       <c r="C24" s="145" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F24" s="145" t="s">
         <v>20</v>
@@ -5565,14 +5597,14 @@
       <c r="L24" s="119"/>
       <c r="M24" s="119"/>
       <c r="T24" s="152" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="16" thickBot="1">
       <c r="A25" s="113"/>
       <c r="B25" s="114"/>
       <c r="C25" s="145" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F25" s="145" t="s">
         <v>20</v>
@@ -5587,14 +5619,14 @@
       <c r="L25" s="119"/>
       <c r="M25" s="119"/>
       <c r="T25" s="152" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="16" thickBot="1">
       <c r="A26" s="113"/>
       <c r="B26" s="114"/>
       <c r="C26" s="145" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F26" s="145" t="s">
         <v>20</v>
@@ -5609,17 +5641,17 @@
       <c r="L26" s="119"/>
       <c r="M26" s="119"/>
       <c r="T26" s="159" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="16" thickBot="1">
       <c r="A27" s="113"/>
       <c r="B27" s="114"/>
       <c r="C27" s="147" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F27" s="145" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H27" s="131">
         <f>0</f>
@@ -5631,14 +5663,14 @@
       <c r="L27" s="119"/>
       <c r="M27" s="119"/>
       <c r="T27" s="152" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="16" thickBot="1">
       <c r="A28" s="113"/>
       <c r="B28" s="114"/>
       <c r="C28" s="145" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F28" s="145" t="s">
         <v>53</v>
@@ -5653,14 +5685,14 @@
       <c r="L28" s="119"/>
       <c r="M28" s="119"/>
       <c r="T28" s="152" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="16" thickBot="1">
       <c r="A29" s="113"/>
       <c r="B29" s="114"/>
       <c r="C29" s="145" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F29" s="145" t="s">
         <v>53</v>
@@ -5812,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="169" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="16" thickBot="1">
@@ -5825,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="169" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="16" thickBot="1">
@@ -5838,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="169" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="16" thickBot="1">
@@ -5851,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="169" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="16" thickBot="1">
@@ -5864,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="169" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -5877,7 +5909,7 @@
       <c r="B42" s="114"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -6015,10 +6047,10 @@
         <v>64</v>
       </c>
       <c r="D9" s="157" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E9" s="157" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F9" s="59">
         <v>2010</v>
@@ -6030,10 +6062,10 @@
         <v>42349</v>
       </c>
       <c r="I9" s="64" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J9" s="76" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="2:10">
@@ -6062,10 +6094,10 @@
         <v>97</v>
       </c>
       <c r="D12" s="154" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E12" s="157" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F12" s="59">
         <v>2015</v>
@@ -6077,10 +6109,10 @@
         <v>42360</v>
       </c>
       <c r="I12" s="64" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J12" s="59" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -6098,7 +6130,7 @@
     <row r="15" spans="2:10">
       <c r="B15" s="62"/>
       <c r="C15" s="163" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="2:10">
@@ -6110,10 +6142,10 @@
         <v>24</v>
       </c>
       <c r="D17" s="163" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E17" s="163" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F17" s="59">
         <v>2013</v>
@@ -6125,10 +6157,10 @@
         <v>42373</v>
       </c>
       <c r="I17" s="64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J17" s="59" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -6146,7 +6178,7 @@
     <row r="20" spans="2:10">
       <c r="B20" s="62"/>
       <c r="C20" s="163" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="2:10">
@@ -6170,7 +6202,7 @@
         <v>98</v>
       </c>
       <c r="D24" s="113" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E24" s="118" t="s">
         <v>56</v>
@@ -6185,10 +6217,10 @@
         <v>42349</v>
       </c>
       <c r="I24" s="156" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J24" s="58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="2:10">
@@ -6200,7 +6232,7 @@
     <row r="26" spans="2:10">
       <c r="B26" s="62"/>
       <c r="C26" s="144" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="2:10">
@@ -6211,7 +6243,7 @@
         <v>79</v>
       </c>
       <c r="D28" s="163" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F28" s="59">
         <v>2016</v>
@@ -6223,16 +6255,16 @@
         <v>42373</v>
       </c>
       <c r="J28" s="59" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="2:10">
       <c r="I30" s="176" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -6250,8 +6282,8 @@
   </sheetPr>
   <dimension ref="A1:O409"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6422,7 +6454,7 @@
     <row r="12" spans="1:15">
       <c r="B12" s="75"/>
       <c r="C12" s="164" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D12" s="76"/>
       <c r="K12" s="76"/>
@@ -6442,7 +6474,7 @@
         <v>65</v>
       </c>
       <c r="G13" s="76" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H13" s="76"/>
       <c r="K13" s="76"/>
@@ -6495,7 +6527,7 @@
         <v>14.791666666666666</v>
       </c>
       <c r="F16" s="69" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I16" s="76"/>
       <c r="J16" s="76"/>
@@ -6553,7 +6585,10 @@
         <v>493.46643518518516</v>
       </c>
       <c r="F19" s="69" t="s">
-        <v>170</v>
+        <v>167</v>
+      </c>
+      <c r="G19" s="69" t="s">
+        <v>64</v>
       </c>
       <c r="H19" s="76"/>
       <c r="I19" s="76"/>
@@ -6589,7 +6624,7 @@
         <v>54</v>
       </c>
       <c r="G21" s="69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H21" s="76"/>
       <c r="I21" s="76"/>
@@ -6609,10 +6644,10 @@
         <v>3717578.7361111101</v>
       </c>
       <c r="F22" s="76" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G22" s="69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H22" s="76"/>
       <c r="I22" s="76"/>
@@ -6679,7 +6714,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F26" s="76" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G26" s="76"/>
       <c r="H26" s="76"/>
@@ -6700,7 +6735,7 @@
         <v>2.9984966666666666</v>
       </c>
       <c r="F27" s="76" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G27" s="76"/>
       <c r="H27" s="76"/>
@@ -6767,7 +6802,7 @@
     <row r="32" spans="2:15">
       <c r="B32" s="75"/>
       <c r="C32" s="174" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D32" s="76"/>
       <c r="E32" s="69">
@@ -6778,7 +6813,7 @@
         <v>80</v>
       </c>
       <c r="G32" s="69" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H32" s="76"/>
       <c r="I32" s="76"/>
@@ -6801,7 +6836,7 @@
         <v>80</v>
       </c>
       <c r="G33" s="69" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H33" s="76"/>
       <c r="I33" s="76"/>
@@ -6847,7 +6882,7 @@
     <row r="37" spans="2:15">
       <c r="B37" s="75"/>
       <c r="C37" s="69" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J37" s="76"/>
       <c r="K37" s="76"/>
@@ -6906,10 +6941,10 @@
         <v>120.1</v>
       </c>
       <c r="F43" s="69" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G43" s="69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K43" s="76"/>
       <c r="L43" s="76"/>
@@ -6924,10 +6959,10 @@
         <v>33.361111111111107</v>
       </c>
       <c r="F44" s="69" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G44" s="69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K44" s="76"/>
       <c r="L44" s="76"/>
@@ -6962,7 +6997,7 @@
     <row r="48" spans="2:15">
       <c r="B48" s="75"/>
       <c r="C48" s="164" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K48" s="76"/>
       <c r="L48" s="76"/>
@@ -7112,13 +7147,13 @@
         <v>54</v>
       </c>
       <c r="F66" s="69" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G66" s="69" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H66" s="69" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K66" s="76"/>
       <c r="L66" s="76"/>
@@ -7155,13 +7190,13 @@
         <v>50</v>
       </c>
       <c r="F69" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="G69" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="H69" s="69" t="s">
         <v>161</v>
-      </c>
-      <c r="G69" s="69" t="s">
-        <v>162</v>
-      </c>
-      <c r="H69" s="69" t="s">
-        <v>164</v>
       </c>
       <c r="K69" s="76"/>
       <c r="L69" s="76"/>
@@ -7200,7 +7235,7 @@
     <row r="73" spans="2:15">
       <c r="B73" s="75"/>
       <c r="F73" s="69" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K73" s="76"/>
       <c r="L73" s="76"/>
@@ -7249,16 +7284,16 @@
     <row r="80" spans="2:15">
       <c r="B80" s="75"/>
       <c r="C80" s="69" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E80" s="69">
         <v>25</v>
       </c>
       <c r="F80" s="69" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G80" s="69" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N80" s="76"/>
       <c r="O80" s="76"/>
@@ -7266,16 +7301,16 @@
     <row r="81" spans="2:15">
       <c r="B81" s="75"/>
       <c r="C81" s="69" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E81" s="69">
         <v>26</v>
       </c>
       <c r="F81" s="69" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G81" s="69" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N81" s="76"/>
       <c r="O81" s="76"/>
@@ -7321,7 +7356,7 @@
         <v>8585</v>
       </c>
       <c r="F89" s="69" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N89" s="76"/>
       <c r="O89" s="76"/>
@@ -7449,7 +7484,7 @@
         <v>1100</v>
       </c>
       <c r="F112" s="69" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N112" s="76"/>
       <c r="O112" s="76"/>
@@ -7457,14 +7492,14 @@
     <row r="113" spans="2:15">
       <c r="B113" s="75"/>
       <c r="C113" s="69" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E113" s="69">
         <f>$E$19</f>
         <v>493.46643518518516</v>
       </c>
       <c r="F113" s="69" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G113" s="69" t="s">
         <v>64</v>
@@ -7498,7 +7533,7 @@
         <v>930</v>
       </c>
       <c r="F116" s="69" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N116" s="76"/>
       <c r="O116" s="76"/>
@@ -7506,14 +7541,14 @@
     <row r="117" spans="2:15">
       <c r="B117" s="75"/>
       <c r="C117" s="69" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E117" s="69">
         <f>$E$19</f>
         <v>493.46643518518516</v>
       </c>
       <c r="F117" s="69" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G117" s="69" t="s">
         <v>64</v>
@@ -7591,7 +7626,7 @@
     <row r="133" spans="2:8">
       <c r="B133" s="75"/>
       <c r="C133" s="164" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D133" s="164"/>
       <c r="E133" s="154"/>
@@ -7622,7 +7657,7 @@
     <row r="136" spans="2:8">
       <c r="B136" s="75"/>
       <c r="C136" s="154" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D136" s="154"/>
       <c r="E136" s="154"/>
@@ -7679,7 +7714,7 @@
         <v>75</v>
       </c>
       <c r="G143" s="154" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H143" s="154"/>
     </row>
@@ -7749,7 +7784,7 @@
         <v>1.07</v>
       </c>
       <c r="F150" s="154" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G150" s="154" t="s">
         <v>22</v>
@@ -7764,7 +7799,7 @@
         <v>1070</v>
       </c>
       <c r="F151" s="154" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G151" s="154" t="s">
         <v>22</v>
@@ -7779,7 +7814,7 @@
         <v>493.46643519999998</v>
       </c>
       <c r="F152" s="154" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G152" s="154" t="s">
         <v>64</v>
@@ -7836,10 +7871,10 @@
         <v>4</v>
       </c>
       <c r="F157" s="154" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G157" s="154" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H157" s="154"/>
     </row>
@@ -7854,7 +7889,7 @@
         <v>20</v>
       </c>
       <c r="G158" s="154" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H158" s="154"/>
     </row>
@@ -7869,7 +7904,7 @@
         <v>53</v>
       </c>
       <c r="G159" s="154" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H159" s="154"/>
     </row>
@@ -7890,10 +7925,10 @@
         <v>0</v>
       </c>
       <c r="F161" s="154" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G161" s="154" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H161" s="154"/>
     </row>
@@ -7914,10 +7949,10 @@
         <v>25</v>
       </c>
       <c r="F163" s="154" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G163" s="154" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H163" s="154"/>
     </row>
@@ -8000,7 +8035,7 @@
       <c r="A178" s="154"/>
       <c r="B178" s="155"/>
       <c r="C178" s="73" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8011,7 +8046,7 @@
       <c r="A180" s="154"/>
       <c r="B180" s="155"/>
       <c r="C180" s="69" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8029,37 +8064,37 @@
         <v>1</v>
       </c>
       <c r="F183" s="69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G183" s="69" t="s">
         <v>99</v>
       </c>
       <c r="K183" s="69" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L183" s="76" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="184" spans="1:12">
       <c r="A184" s="154"/>
       <c r="B184" s="155"/>
       <c r="L184" s="76" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="185" spans="1:12">
       <c r="A185" s="154"/>
       <c r="B185" s="155"/>
       <c r="L185" s="76" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="186" spans="1:12">
       <c r="A186" s="154"/>
       <c r="B186" s="155"/>
       <c r="L186" s="76" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8077,13 +8112,13 @@
         <v>0.86</v>
       </c>
       <c r="G189" s="69" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K189" s="69" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L189" s="76" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8097,21 +8132,21 @@
         <v>95</v>
       </c>
       <c r="L190" s="76" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="191" spans="1:12">
       <c r="A191" s="154"/>
       <c r="B191" s="155"/>
       <c r="L191" s="76" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:12">
       <c r="A192" s="154"/>
       <c r="B192" s="155"/>
       <c r="L192" s="76" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -8132,13 +8167,13 @@
         <v>75</v>
       </c>
       <c r="G195" s="69" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K195" s="69" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L195" s="76" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -8150,25 +8185,25 @@
       </c>
       <c r="F196" s="76"/>
       <c r="G196" s="76" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H196" s="76"/>
       <c r="L196" s="76" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="197" spans="1:12">
       <c r="A197" s="154"/>
       <c r="B197" s="155"/>
       <c r="L197" s="76" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="198" spans="1:12">
       <c r="A198" s="154"/>
       <c r="B198" s="155"/>
       <c r="L198" s="76" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -8391,7 +8426,7 @@
       <c r="A252" s="154"/>
       <c r="B252" s="155"/>
       <c r="C252" s="167" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E252" s="76"/>
       <c r="F252" s="76"/>
@@ -8435,7 +8470,7 @@
       <c r="A259" s="154"/>
       <c r="B259" s="155"/>
       <c r="C259" s="69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E259" s="76"/>
       <c r="F259" s="76"/>
@@ -8445,14 +8480,14 @@
       <c r="A260" s="154"/>
       <c r="B260" s="155"/>
       <c r="C260" s="76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="154"/>
       <c r="B261" s="155"/>
       <c r="C261" s="76" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -8464,28 +8499,28 @@
       <c r="A263" s="154"/>
       <c r="B263" s="155"/>
       <c r="C263" s="69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="154"/>
       <c r="B264" s="155"/>
       <c r="C264" s="69" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="154"/>
       <c r="B265" s="155"/>
       <c r="C265" s="69" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" s="154"/>
       <c r="B266" s="155"/>
       <c r="C266" s="69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -8524,7 +8559,7 @@
         <v>67</v>
       </c>
       <c r="G273" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -8559,7 +8594,7 @@
         <v>0.97</v>
       </c>
       <c r="G280" s="69" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -8572,7 +8607,7 @@
         <v>75</v>
       </c>
       <c r="G281" s="69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -8583,7 +8618,7 @@
         <v>0.86</v>
       </c>
       <c r="G282" s="69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -8597,7 +8632,7 @@
         <v>95</v>
       </c>
       <c r="G283" s="69" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -8705,7 +8740,7 @@
         <v>1</v>
       </c>
       <c r="F307" s="69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G307" s="69" t="s">
         <v>99</v>
@@ -8726,10 +8761,10 @@
         <v>20</v>
       </c>
       <c r="F310" s="69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G310" s="69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -8742,7 +8777,7 @@
         <v>75</v>
       </c>
       <c r="G311" s="69" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -8753,7 +8788,7 @@
         <v>0.1</v>
       </c>
       <c r="G312" s="69" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -8903,10 +8938,10 @@
         <v>473976</v>
       </c>
       <c r="F348" s="154" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G348" s="154" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H348" s="154"/>
       <c r="I348" s="154"/>
@@ -8921,7 +8956,7 @@
         <v>20</v>
       </c>
       <c r="G349" s="154" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H349" s="154"/>
       <c r="I349" s="154"/>
@@ -8936,7 +8971,7 @@
         <v>20</v>
       </c>
       <c r="G350" s="154" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H350" s="154"/>
       <c r="I350" s="154"/>
@@ -8975,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="F354" s="154" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G354" s="154" t="s">
         <v>98</v>
@@ -9041,7 +9076,7 @@
         <v>473976</v>
       </c>
       <c r="F360" s="154" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G360" s="154" t="s">
         <v>96</v>
@@ -9209,7 +9244,7 @@
         <v>55</v>
       </c>
       <c r="G377" s="154" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H377" s="154"/>
       <c r="I377" s="154"/>
@@ -9224,7 +9259,7 @@
         <v>53</v>
       </c>
       <c r="G378" s="154" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H378" s="154"/>
       <c r="I378" s="154"/>
@@ -9440,7 +9475,7 @@
         <v>55</v>
       </c>
       <c r="G404" s="154" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H404" s="154"/>
       <c r="I404" s="154"/>
@@ -9453,7 +9488,7 @@
         <v>53</v>
       </c>
       <c r="G405" s="154" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H405" s="154"/>
       <c r="I405" s="154"/>
@@ -9462,7 +9497,7 @@
       <c r="E406" s="154"/>
       <c r="F406" s="154"/>
       <c r="G406" s="154" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H406" s="154"/>
       <c r="I406" s="154"/>
@@ -9482,7 +9517,7 @@
         <v>57</v>
       </c>
       <c r="G408" s="154" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H408" s="154"/>
       <c r="I408" s="154"/>
@@ -9495,7 +9530,7 @@
         <v>73</v>
       </c>
       <c r="G409" s="154" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H409" s="154"/>
       <c r="I409" s="154"/>

--- a/nodes_source_analyses/energy/energy_local_electrolysis_hydrogen.converter.xlsx
+++ b/nodes_source_analyses/energy/energy_local_electrolysis_hydrogen.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="-20" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="8740" yWindow="460" windowWidth="19200" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -41,8 +46,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -189,9 +197,6 @@
   </si>
   <si>
     <t>Technical</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Comments</t>
@@ -776,6 +781,10 @@
   <si>
     <t>variable_operation_and_maintenance_costs_per_full_load_hour</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -789,7 +798,7 @@
     <numFmt numFmtId="168" formatCode="0.000000"/>
     <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1012,11 +1021,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1640,7 +1644,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2027,7 +2031,7 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -2063,20 +2067,20 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2096,8 +2100,8 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2167,8 +2171,8 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="169" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="23" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2185,27 +2189,27 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="36" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="36" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="35" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="35" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2214,9 +2218,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2224,7 +2228,7 @@
     <xf numFmtId="168" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="36" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="35" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2238,31 +2242,31 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2875,77 +2879,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>139700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3519,7 +3453,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -3632,7 +3566,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Title"/>
@@ -3693,7 +3627,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Title"/>
@@ -4084,50 +4018,50 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="22"/>
+    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1">
+    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -4136,29 +4070,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="78" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="79"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="80"/>
       <c r="C10" s="81"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="80" t="s">
         <v>28</v>
@@ -4167,33 +4101,33 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="80"/>
       <c r="C12" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="80"/>
       <c r="C13" s="83" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="80"/>
       <c r="C15" s="81"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="80" t="s">
         <v>33</v>
@@ -4202,49 +4136,49 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="80"/>
       <c r="C17" s="85" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="80"/>
       <c r="C18" s="86" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="80"/>
       <c r="C19" s="87" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="88"/>
       <c r="C20" s="89" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="88"/>
       <c r="C21" s="90" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="88"/>
       <c r="C22" s="91" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="88"/>
       <c r="C23" s="92" t="s">
         <v>41</v>
@@ -4253,46 +4187,41 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="35" customWidth="1"/>
     <col min="3" max="3" width="36" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
     <col min="7" max="7" width="34" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="35"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D1" s="36"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="186" t="s">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="C2" s="187"/>
       <c r="D2" s="187"/>
@@ -4300,7 +4229,7 @@
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="189"/>
       <c r="C3" s="190"/>
       <c r="D3" s="190"/>
@@ -4308,7 +4237,7 @@
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="189"/>
       <c r="C4" s="190"/>
       <c r="D4" s="190"/>
@@ -4316,7 +4245,7 @@
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="192"/>
       <c r="C5" s="193"/>
       <c r="D5" s="193"/>
@@ -4324,17 +4253,17 @@
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
     </row>
-    <row r="7" spans="1:12" ht="16" thickBot="1">
+    <row r="7" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D7" s="36"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="37"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -4345,7 +4274,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="1:12" s="26" customFormat="1">
+    <row r="9" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24"/>
       <c r="C9" s="16" t="s">
         <v>19</v>
@@ -4366,7 +4295,7 @@
       </c>
       <c r="J9" s="95"/>
     </row>
-    <row r="10" spans="1:12" s="26" customFormat="1">
+    <row r="10" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="25"/>
       <c r="C10" s="13"/>
       <c r="D10" s="33"/>
@@ -4377,7 +4306,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:12" s="26" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="1:12" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="25"/>
       <c r="C11" s="13" t="s">
         <v>45</v>
@@ -4390,10 +4319,10 @@
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:12" s="26" customFormat="1" ht="16" thickBot="1">
+    <row r="12" spans="1:12" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="25"/>
       <c r="C12" s="110" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="107">
@@ -4409,10 +4338,10 @@
       <c r="J12" s="14"/>
       <c r="L12" s="35"/>
     </row>
-    <row r="13" spans="1:12" s="26" customFormat="1" ht="16" thickBot="1">
+    <row r="13" spans="1:12" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="25"/>
       <c r="C13" s="110" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>2</v>
@@ -4423,23 +4352,23 @@
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="110" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="171" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J13" s="14"/>
       <c r="L13" s="35"/>
     </row>
-    <row r="14" spans="1:12" ht="16" thickBot="1">
+    <row r="14" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="113"/>
       <c r="B14" s="114"/>
       <c r="C14" s="184" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" s="107">
         <f>'Research data'!H9</f>
@@ -4447,20 +4376,20 @@
       </c>
       <c r="F14" s="110"/>
       <c r="G14" s="184" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H14" s="110"/>
       <c r="I14" s="158" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J14" s="116"/>
       <c r="K14" s="26"/>
     </row>
-    <row r="15" spans="1:12" ht="16" thickBot="1">
+    <row r="15" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="113"/>
       <c r="B15" s="114"/>
       <c r="C15" s="110" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>2</v>
@@ -4475,10 +4404,10 @@
       <c r="J15" s="116"/>
       <c r="K15" s="36"/>
     </row>
-    <row r="16" spans="1:12" ht="16" thickBot="1">
+    <row r="16" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="114"/>
       <c r="C16" s="110" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>2</v>
@@ -4491,15 +4420,15 @@
       <c r="G16" s="110"/>
       <c r="H16" s="110"/>
       <c r="I16" s="171" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J16" s="116"/>
       <c r="K16" s="36"/>
     </row>
-    <row r="17" spans="1:11" ht="16" thickBot="1">
+    <row r="17" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="114"/>
       <c r="C17" s="150" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="107">
@@ -4508,15 +4437,15 @@
       </c>
       <c r="F17" s="110"/>
       <c r="G17" s="150" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H17" s="110"/>
       <c r="I17" s="112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J17" s="116"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B18" s="40"/>
       <c r="D18" s="36"/>
       <c r="E18" s="36"/>
@@ -4526,7 +4455,7 @@
       <c r="I18" s="36"/>
       <c r="J18" s="96"/>
     </row>
-    <row r="19" spans="1:11" ht="16" thickBot="1">
+    <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="40"/>
       <c r="C19" s="13" t="s">
         <v>44</v>
@@ -4539,7 +4468,7 @@
       <c r="I19" s="36"/>
       <c r="J19" s="96"/>
     </row>
-    <row r="20" spans="1:11" ht="16" thickBot="1">
+    <row r="20" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="40"/>
       <c r="C20" s="39" t="s">
         <v>22</v>
@@ -4557,17 +4486,17 @@
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="171" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J20" s="96"/>
     </row>
-    <row r="21" spans="1:11" ht="16" thickBot="1">
+    <row r="21" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="40"/>
       <c r="C21" s="39" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="41">
         <f>'Research data'!H20</f>
@@ -4579,17 +4508,17 @@
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="171" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J21" s="96"/>
     </row>
-    <row r="22" spans="1:11" ht="16" thickBot="1">
+    <row r="22" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="139"/>
       <c r="C22" s="185" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D22" s="141" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" s="107">
         <f>'Research data'!H23</f>
@@ -4597,19 +4526,19 @@
       </c>
       <c r="F22" s="142"/>
       <c r="G22" s="140" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H22" s="142"/>
       <c r="I22" s="171" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J22" s="143"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1">
+    <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="144"/>
       <c r="B23" s="146"/>
       <c r="C23" s="147" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D23" s="141"/>
       <c r="E23" s="107">
@@ -4618,7 +4547,7 @@
       </c>
       <c r="F23" s="147"/>
       <c r="G23" s="147" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H23" s="147"/>
       <c r="I23" s="180" t="s">
@@ -4626,11 +4555,11 @@
       </c>
       <c r="J23" s="148"/>
     </row>
-    <row r="24" spans="1:11" ht="16" thickBot="1">
+    <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="144"/>
       <c r="B24" s="146"/>
       <c r="C24" s="147" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D24" s="141"/>
       <c r="E24" s="107">
@@ -4639,7 +4568,7 @@
       </c>
       <c r="F24" s="147"/>
       <c r="G24" s="147" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H24" s="147"/>
       <c r="I24" s="180" t="s">
@@ -4648,11 +4577,11 @@
       <c r="J24" s="148"/>
       <c r="K24" s="144"/>
     </row>
-    <row r="25" spans="1:11" ht="16" thickBot="1">
+    <row r="25" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="144"/>
       <c r="B25" s="146"/>
       <c r="C25" s="185" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D25" s="141"/>
       <c r="E25" s="107">
@@ -4661,20 +4590,20 @@
       </c>
       <c r="F25" s="147"/>
       <c r="G25" s="147" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H25" s="147"/>
       <c r="I25" s="171" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J25" s="148"/>
       <c r="K25" s="144"/>
     </row>
-    <row r="26" spans="1:11" ht="16" thickBot="1">
+    <row r="26" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="144"/>
       <c r="B26" s="146"/>
       <c r="C26" s="147" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D26" s="141"/>
       <c r="E26" s="107">
@@ -4683,7 +4612,7 @@
       </c>
       <c r="F26" s="147"/>
       <c r="G26" s="145" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H26" s="147"/>
       <c r="I26" s="180" t="s">
@@ -4692,37 +4621,37 @@
       <c r="J26" s="148"/>
       <c r="K26" s="144"/>
     </row>
-    <row r="27" spans="1:11" ht="16" thickBot="1">
+    <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="113"/>
       <c r="B27" s="114"/>
       <c r="C27" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="23" t="s">
         <v>74</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>75</v>
       </c>
       <c r="E27" s="117">
         <v>0.1</v>
       </c>
       <c r="F27" s="110"/>
       <c r="G27" s="110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H27" s="110"/>
       <c r="I27" s="179" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J27" s="116"/>
       <c r="K27" s="144"/>
     </row>
-    <row r="28" spans="1:11" ht="16" thickBot="1">
+    <row r="28" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="113"/>
       <c r="B28" s="114"/>
       <c r="C28" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>77</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>78</v>
       </c>
       <c r="E28" s="117">
         <v>0</v>
@@ -4735,7 +4664,7 @@
       </c>
       <c r="J28" s="116"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="113"/>
       <c r="B29" s="114"/>
       <c r="C29" s="110"/>
@@ -4747,7 +4676,7 @@
       <c r="I29" s="118"/>
       <c r="J29" s="116"/>
     </row>
-    <row r="30" spans="1:11" ht="16" thickBot="1">
+    <row r="30" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="113"/>
       <c r="B30" s="114"/>
       <c r="C30" s="13" t="s">
@@ -4760,7 +4689,7 @@
       <c r="I30" s="118"/>
       <c r="J30" s="116"/>
     </row>
-    <row r="31" spans="1:11" ht="16" thickBot="1">
+    <row r="31" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="113"/>
       <c r="B31" s="114"/>
       <c r="C31" s="110" t="s">
@@ -4775,19 +4704,19 @@
       </c>
       <c r="F31" s="110"/>
       <c r="G31" s="110" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H31" s="110"/>
       <c r="I31" s="172" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J31" s="116"/>
     </row>
-    <row r="32" spans="1:11" ht="16" thickBot="1">
+    <row r="32" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="113"/>
       <c r="B32" s="114"/>
       <c r="C32" s="110" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>1</v>
@@ -4798,22 +4727,22 @@
       </c>
       <c r="F32" s="110"/>
       <c r="G32" s="110" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H32" s="110"/>
       <c r="I32" s="172" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J32" s="116"/>
     </row>
-    <row r="33" spans="1:10" ht="16" thickBot="1">
+    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="113"/>
       <c r="B33" s="114"/>
       <c r="C33" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="23" t="s">
         <v>79</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>80</v>
       </c>
       <c r="E33" s="136">
         <f>'Research data'!H34</f>
@@ -4821,15 +4750,15 @@
       </c>
       <c r="F33" s="110"/>
       <c r="G33" s="110" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H33" s="110"/>
       <c r="I33" s="179" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J33" s="116"/>
     </row>
-    <row r="34" spans="1:10" ht="16" thickBot="1">
+    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="113"/>
       <c r="B34" s="114"/>
       <c r="C34" s="110" t="s">
@@ -4849,7 +4778,7 @@
       </c>
       <c r="J34" s="116"/>
     </row>
-    <row r="35" spans="1:10" ht="16" thickBot="1">
+    <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="113"/>
       <c r="B35" s="121"/>
       <c r="C35" s="122"/>
@@ -4861,7 +4790,7 @@
       <c r="I35" s="122"/>
       <c r="J35" s="123"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="113"/>
       <c r="B36" s="113"/>
       <c r="C36" s="113"/>
@@ -4873,7 +4802,7 @@
       <c r="I36" s="113"/>
       <c r="J36" s="113"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="113"/>
       <c r="B37" s="113"/>
       <c r="C37" s="113"/>
@@ -4885,7 +4814,7 @@
       <c r="I37" s="113"/>
       <c r="J37" s="113"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="113"/>
       <c r="B38" s="113"/>
       <c r="C38" s="113"/>
@@ -4897,7 +4826,7 @@
       <c r="I38" s="113"/>
       <c r="J38" s="113"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="113"/>
       <c r="B39" s="113"/>
       <c r="E39" s="113"/>
@@ -4907,7 +4836,7 @@
       <c r="I39" s="113"/>
       <c r="J39" s="113"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="113"/>
       <c r="B40" s="113"/>
       <c r="C40" s="113"/>
@@ -4919,7 +4848,7 @@
       <c r="I40" s="113"/>
       <c r="J40" s="113"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="113"/>
       <c r="B41" s="113"/>
       <c r="C41" s="113"/>
@@ -4931,7 +4860,7 @@
       <c r="I41" s="113"/>
       <c r="J41" s="113"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="113"/>
       <c r="B42" s="113"/>
       <c r="C42" s="113"/>
@@ -4943,7 +4872,7 @@
       <c r="I42" s="113"/>
       <c r="J42" s="113"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="113"/>
       <c r="B43" s="113"/>
       <c r="C43" s="113"/>
@@ -4955,10 +4884,10 @@
       <c r="I43" s="113"/>
       <c r="J43" s="113"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="113"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="113"/>
     </row>
   </sheetData>
@@ -4967,43 +4896,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>139700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5018,36 +4910,36 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="42" customWidth="1"/>
     <col min="2" max="2" width="3" style="42" customWidth="1"/>
-    <col min="3" max="3" width="34.375" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="42" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="42" customWidth="1"/>
     <col min="7" max="7" width="3" style="42" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="42" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="42" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="42" customWidth="1"/>
-    <col min="11" max="11" width="2.5" style="42" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="42" customWidth="1"/>
-    <col min="13" max="13" width="2.375" style="42" customWidth="1"/>
-    <col min="14" max="14" width="10.125" style="42" customWidth="1"/>
-    <col min="15" max="15" width="2.125" style="42" customWidth="1"/>
-    <col min="16" max="16" width="7.875" style="42" customWidth="1"/>
-    <col min="17" max="17" width="2.125" style="42" customWidth="1"/>
-    <col min="18" max="18" width="7.875" style="42" customWidth="1"/>
-    <col min="19" max="19" width="2.125" style="42" customWidth="1"/>
-    <col min="20" max="20" width="33.125" style="42" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="42" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="42" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="42" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="42" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" style="42" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="42" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" style="42" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" style="42" customWidth="1"/>
+    <col min="17" max="17" width="2.140625" style="42" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" style="42" customWidth="1"/>
+    <col min="19" max="19" width="2.140625" style="42" customWidth="1"/>
+    <col min="20" max="20" width="33.140625" style="42" customWidth="1"/>
     <col min="21" max="21" width="11" style="42" customWidth="1"/>
-    <col min="22" max="22" width="2.5" style="42" customWidth="1"/>
-    <col min="23" max="23" width="22.375" style="42" customWidth="1"/>
-    <col min="24" max="16384" width="10.625" style="42"/>
+    <col min="22" max="22" width="2.42578125" style="42" customWidth="1"/>
+    <col min="23" max="23" width="22.42578125" style="42" customWidth="1"/>
+    <col min="24" max="16384" width="10.7109375" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="16" thickBot="1"/>
-    <row r="3" spans="1:23">
+    <row r="2" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -5071,7 +4963,7 @@
       <c r="V3" s="44"/>
       <c r="W3" s="44"/>
     </row>
-    <row r="4" spans="1:23" s="26" customFormat="1">
+    <row r="4" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="25"/>
       <c r="C4" s="93" t="s">
         <v>19</v>
@@ -5083,34 +4975,34 @@
       </c>
       <c r="G4" s="93"/>
       <c r="H4" s="93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="93"/>
       <c r="J4" s="93" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K4" s="93"/>
       <c r="L4" s="93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M4" s="93"/>
       <c r="N4" s="93" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O4" s="93"/>
       <c r="P4" s="93" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="93"/>
       <c r="R4" s="93" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S4" s="93"/>
       <c r="T4" s="93" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="18" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="45"/>
       <c r="C5" s="51"/>
       <c r="D5" s="51"/>
@@ -5125,7 +5017,7 @@
       <c r="M5" s="50"/>
       <c r="T5" s="56"/>
     </row>
-    <row r="6" spans="1:23" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="45"/>
       <c r="C6" s="12" t="s">
         <v>45</v>
@@ -5148,10 +5040,10 @@
       <c r="S6" s="46"/>
       <c r="T6" s="54"/>
     </row>
-    <row r="7" spans="1:23" ht="16" thickBot="1">
+    <row r="7" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="45"/>
       <c r="C7" s="111" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
@@ -5173,10 +5065,10 @@
       <c r="S7" s="46"/>
       <c r="T7" s="109"/>
     </row>
-    <row r="8" spans="1:23" ht="16" thickBot="1">
+    <row r="8" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="45"/>
       <c r="C8" s="111" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="52"/>
       <c r="E8" s="52"/>
@@ -5207,15 +5099,15 @@
       <c r="S8" s="46"/>
       <c r="T8" s="54"/>
     </row>
-    <row r="9" spans="1:23" ht="16" thickBot="1">
+    <row r="9" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="45"/>
       <c r="C9" s="183" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D9" s="52"/>
       <c r="E9" s="52"/>
       <c r="F9" s="125" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="94"/>
       <c r="H9" s="106">
@@ -5235,11 +5127,11 @@
       <c r="S9" s="46"/>
       <c r="T9" s="109"/>
     </row>
-    <row r="10" spans="1:23" ht="16" thickBot="1">
+    <row r="10" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="113"/>
       <c r="B10" s="114"/>
       <c r="C10" s="110" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="52"/>
       <c r="E10" s="52"/>
@@ -5271,14 +5163,14 @@
       <c r="T10" s="153"/>
       <c r="U10" s="113"/>
     </row>
-    <row r="11" spans="1:23" ht="16" thickBot="1">
+    <row r="11" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="113"/>
       <c r="B11" s="114"/>
       <c r="C11" s="110" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="110" t="s">
         <v>94</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>95</v>
       </c>
       <c r="H11" s="181">
         <f>J11</f>
@@ -5294,11 +5186,11 @@
       <c r="M11" s="119"/>
       <c r="T11" s="153"/>
     </row>
-    <row r="12" spans="1:23" ht="16" thickBot="1">
+    <row r="12" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="113"/>
       <c r="B12" s="114"/>
       <c r="C12" s="110" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -5323,11 +5215,11 @@
       <c r="T12" s="153"/>
       <c r="U12" s="113"/>
     </row>
-    <row r="13" spans="1:23" ht="16" thickBot="1">
+    <row r="13" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="113"/>
       <c r="B13" s="114"/>
       <c r="C13" s="110" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
@@ -5349,15 +5241,15 @@
       <c r="R13" s="113"/>
       <c r="S13" s="113"/>
       <c r="T13" s="173" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U13" s="113"/>
     </row>
-    <row r="14" spans="1:23" ht="16" thickBot="1">
+    <row r="14" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="113"/>
       <c r="B14" s="114"/>
       <c r="C14" s="110" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
@@ -5379,15 +5271,15 @@
       <c r="R14" s="113"/>
       <c r="S14" s="113"/>
       <c r="T14" s="173" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U14" s="113"/>
     </row>
-    <row r="15" spans="1:23" ht="16" thickBot="1">
+    <row r="15" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="113"/>
       <c r="B15" s="114"/>
       <c r="C15" s="110" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="111"/>
       <c r="E15" s="111"/>
@@ -5409,11 +5301,11 @@
       <c r="R15" s="113"/>
       <c r="S15" s="113"/>
       <c r="T15" s="173" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U15" s="113"/>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B16" s="45"/>
       <c r="C16" s="52"/>
       <c r="D16" s="111"/>
@@ -5433,7 +5325,7 @@
       <c r="S16" s="46"/>
       <c r="T16" s="57"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="113"/>
       <c r="B17" s="114"/>
       <c r="C17" s="34"/>
@@ -5446,7 +5338,7 @@
       <c r="M17" s="127"/>
       <c r="T17" s="56"/>
     </row>
-    <row r="18" spans="1:20" ht="16" thickBot="1">
+    <row r="18" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="113"/>
       <c r="B18" s="114"/>
       <c r="C18" s="12" t="s">
@@ -5461,11 +5353,11 @@
       <c r="M18" s="127"/>
       <c r="T18" s="109"/>
     </row>
-    <row r="19" spans="1:20" ht="16" thickBot="1">
+    <row r="19" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="113"/>
       <c r="B19" s="114"/>
       <c r="C19" s="130" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="124"/>
       <c r="E19" s="124"/>
@@ -5490,14 +5382,14 @@
       </c>
       <c r="T19" s="109"/>
     </row>
-    <row r="20" spans="1:20" ht="16" thickBot="1">
+    <row r="20" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="113"/>
       <c r="B20" s="114"/>
       <c r="C20" s="130" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" s="132" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H20" s="126">
         <f>N20</f>
@@ -5511,14 +5403,14 @@
         <v>20396.612649999999</v>
       </c>
       <c r="T20" s="159" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="16" thickBot="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="113"/>
       <c r="B21" s="114"/>
       <c r="C21" s="130" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F21" s="132" t="s">
         <v>20</v>
@@ -5535,17 +5427,17 @@
         <v>0</v>
       </c>
       <c r="T21" s="135" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="16" thickBot="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="113"/>
       <c r="B22" s="114"/>
       <c r="C22" s="130" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F22" s="125" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H22" s="168">
         <f>H21/(H9*H11*3600)</f>
@@ -5555,17 +5447,17 @@
       <c r="L22" s="127"/>
       <c r="M22" s="119"/>
       <c r="T22" s="135" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="16" thickBot="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="113"/>
       <c r="B23" s="114"/>
       <c r="C23" s="130" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F23" s="125" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H23" s="168">
         <f>H21/H11</f>
@@ -5575,14 +5467,14 @@
       <c r="L23" s="128"/>
       <c r="M23" s="119"/>
       <c r="T23" s="135" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="16" thickBot="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="113"/>
       <c r="B24" s="114"/>
       <c r="C24" s="145" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F24" s="145" t="s">
         <v>20</v>
@@ -5597,14 +5489,14 @@
       <c r="L24" s="119"/>
       <c r="M24" s="119"/>
       <c r="T24" s="152" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="16" thickBot="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="113"/>
       <c r="B25" s="114"/>
       <c r="C25" s="145" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25" s="145" t="s">
         <v>20</v>
@@ -5619,14 +5511,14 @@
       <c r="L25" s="119"/>
       <c r="M25" s="119"/>
       <c r="T25" s="152" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="16" thickBot="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="113"/>
       <c r="B26" s="114"/>
       <c r="C26" s="145" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F26" s="145" t="s">
         <v>20</v>
@@ -5641,17 +5533,17 @@
       <c r="L26" s="119"/>
       <c r="M26" s="119"/>
       <c r="T26" s="159" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="16" thickBot="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="113"/>
       <c r="B27" s="114"/>
       <c r="C27" s="147" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F27" s="145" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H27" s="131">
         <f>0</f>
@@ -5663,17 +5555,17 @@
       <c r="L27" s="119"/>
       <c r="M27" s="119"/>
       <c r="T27" s="152" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="16" thickBot="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="113"/>
       <c r="B28" s="114"/>
       <c r="C28" s="145" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F28" s="145" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H28" s="131">
         <f>0</f>
@@ -5685,17 +5577,17 @@
       <c r="L28" s="119"/>
       <c r="M28" s="119"/>
       <c r="T28" s="152" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="16" thickBot="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="113"/>
       <c r="B29" s="114"/>
       <c r="C29" s="145" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F29" s="145" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H29" s="166">
         <f>H20+H28</f>
@@ -5708,11 +5600,11 @@
       <c r="M29" s="119"/>
       <c r="T29" s="149"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B30" s="45"/>
       <c r="T30" s="49"/>
     </row>
-    <row r="31" spans="1:20" ht="16" thickBot="1">
+    <row r="31" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="113"/>
       <c r="B31" s="114"/>
       <c r="C31" s="34" t="s">
@@ -5733,7 +5625,7 @@
       <c r="S31" s="46"/>
       <c r="T31" s="57"/>
     </row>
-    <row r="32" spans="1:20" ht="16" thickBot="1">
+    <row r="32" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="113"/>
       <c r="B32" s="114"/>
       <c r="C32" s="129" t="s">
@@ -5765,11 +5657,11 @@
       <c r="S32" s="46"/>
       <c r="T32" s="135"/>
     </row>
-    <row r="33" spans="1:20" ht="16" thickBot="1">
+    <row r="33" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="113"/>
       <c r="B33" s="114"/>
       <c r="C33" s="111" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F33" s="125" t="s">
         <v>1</v>
@@ -5793,14 +5685,14 @@
       <c r="S33" s="46"/>
       <c r="T33" s="135"/>
     </row>
-    <row r="34" spans="1:20" ht="16" thickBot="1">
+    <row r="34" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="113"/>
       <c r="B34" s="114"/>
       <c r="C34" s="124" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F34" s="125" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H34" s="177">
         <f>R34</f>
@@ -5822,7 +5714,7 @@
       <c r="S34" s="46"/>
       <c r="T34" s="57"/>
     </row>
-    <row r="35" spans="1:20" ht="16" thickBot="1">
+    <row r="35" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="113"/>
       <c r="B35" s="114"/>
       <c r="C35" s="104" t="s">
@@ -5834,89 +5726,84 @@
       </c>
       <c r="T35" s="149"/>
     </row>
-    <row r="36" spans="1:20" ht="16" thickBot="1">
+    <row r="36" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="113"/>
       <c r="B36" s="114"/>
       <c r="C36" s="110" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H36" s="117">
         <v>0</v>
       </c>
       <c r="T36" s="169" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="16" thickBot="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="113"/>
       <c r="B37" s="114"/>
       <c r="C37" s="110" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H37" s="117">
         <v>0</v>
       </c>
       <c r="T37" s="169" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="16" thickBot="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="113"/>
       <c r="B38" s="114"/>
       <c r="C38" s="110" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H38" s="117">
         <v>0</v>
       </c>
       <c r="T38" s="169" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="16" thickBot="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="113"/>
       <c r="B39" s="114"/>
       <c r="C39" s="110" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H39" s="117">
         <v>0</v>
       </c>
       <c r="T39" s="169" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="16" thickBot="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="113"/>
       <c r="B40" s="114"/>
       <c r="C40" s="110" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H40" s="117">
         <v>0</v>
       </c>
       <c r="T40" s="169" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="113"/>
       <c r="B41" s="114"/>
       <c r="T41" s="135"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="113"/>
       <c r="B42" s="114"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="37" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5931,22 +5818,22 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="59" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="59" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="59" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="59" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="59" customWidth="1"/>
-    <col min="6" max="7" width="13.125" style="59" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="64" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="64" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="59" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="59"/>
+    <col min="1" max="1" width="3.42578125" style="59" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="59" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="59" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="59" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="59" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="59" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="64" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="64" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="59" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="60"/>
       <c r="C2" s="61"/>
       <c r="D2" s="61"/>
@@ -5957,7 +5844,7 @@
       <c r="I2" s="65"/>
       <c r="J2" s="61"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="62"/>
       <c r="C3" s="13" t="s">
         <v>15</v>
@@ -5970,7 +5857,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="58"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="62"/>
       <c r="C4" s="58"/>
       <c r="D4" s="58"/>
@@ -5981,7 +5868,7 @@
       <c r="I4" s="66"/>
       <c r="J4" s="58"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="67"/>
       <c r="C5" s="15" t="s">
         <v>16</v>
@@ -5996,19 +5883,19 @@
         <v>17</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="62"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -6019,7 +5906,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="62"/>
       <c r="C7" s="151"/>
       <c r="D7" s="118"/>
@@ -6030,7 +5917,7 @@
       <c r="I7" s="102"/>
       <c r="J7" s="47"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="62"/>
       <c r="C8" s="113"/>
       <c r="D8" s="58"/>
@@ -6041,16 +5928,16 @@
       <c r="I8" s="58"/>
       <c r="J8" s="58"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="62"/>
       <c r="C9" s="144" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="157" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="157" t="s">
         <v>147</v>
-      </c>
-      <c r="E9" s="157" t="s">
-        <v>148</v>
       </c>
       <c r="F9" s="59">
         <v>2010</v>
@@ -6062,13 +5949,13 @@
         <v>42349</v>
       </c>
       <c r="I9" s="64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J9" s="76" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="62"/>
       <c r="C10" s="68"/>
       <c r="D10" s="58"/>
@@ -6079,7 +5966,7 @@
       <c r="I10" s="102"/>
       <c r="J10" s="101"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="62"/>
       <c r="E11" s="108"/>
       <c r="F11" s="58"/>
@@ -6088,16 +5975,16 @@
       <c r="I11" s="118"/>
       <c r="J11" s="100"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="62"/>
       <c r="C12" s="157" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="154" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="157" t="s">
         <v>163</v>
-      </c>
-      <c r="E12" s="157" t="s">
-        <v>164</v>
       </c>
       <c r="F12" s="59">
         <v>2015</v>
@@ -6109,43 +5996,43 @@
         <v>42360</v>
       </c>
       <c r="I12" s="64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J12" s="59" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="62"/>
       <c r="C13" s="163" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="62"/>
       <c r="C14" s="163" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="62"/>
       <c r="C15" s="163" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="62"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="62"/>
       <c r="C17" s="113" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="163" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E17" s="163" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F17" s="59">
         <v>2013</v>
@@ -6157,55 +6044,55 @@
         <v>42373</v>
       </c>
       <c r="I17" s="64" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J17" s="59" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="62"/>
       <c r="C18" s="133" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="62"/>
       <c r="C19" s="134" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="62"/>
       <c r="C20" s="163" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="62"/>
       <c r="C21" s="133" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="62"/>
       <c r="C22" s="163" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="62"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="62"/>
       <c r="C24" s="133" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24" s="113" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E24" s="118" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" s="58">
         <v>2015</v>
@@ -6217,33 +6104,33 @@
         <v>42349</v>
       </c>
       <c r="I24" s="156" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J24" s="58" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="62"/>
       <c r="C25" s="113" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="62"/>
       <c r="C26" s="144" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="62"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C28" s="163" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" s="163" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F28" s="59">
         <v>2016</v>
@@ -6255,23 +6142,18 @@
         <v>42373</v>
       </c>
       <c r="J28" s="59" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I30" s="176" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
-      <c r="I30" s="176" t="s">
-        <v>209</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="37" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6286,21 +6168,21 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="69" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="69" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="69" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="69" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="69" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="69" customWidth="1"/>
     <col min="4" max="4" width="4" style="69" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="69" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="69" customWidth="1"/>
-    <col min="7" max="13" width="10.625" style="69"/>
-    <col min="14" max="14" width="7.125" style="69" customWidth="1"/>
-    <col min="15" max="16384" width="10.625" style="69"/>
+    <col min="5" max="5" width="13.140625" style="69" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="69" customWidth="1"/>
+    <col min="7" max="13" width="10.7109375" style="69"/>
+    <col min="14" max="14" width="7.140625" style="69" customWidth="1"/>
+    <col min="15" max="16384" width="10.7109375" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" thickBot="1"/>
-    <row r="2" spans="1:15">
+    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" s="70"/>
       <c r="C2" s="71"/>
       <c r="D2" s="71"/>
@@ -6315,14 +6197,14 @@
       <c r="M2" s="71"/>
       <c r="N2" s="72"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="73"/>
       <c r="B3" s="98"/>
       <c r="C3" s="77" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="77" t="s">
         <v>26</v>
@@ -6337,7 +6219,7 @@
       <c r="M3" s="74"/>
       <c r="N3" s="99"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="75"/>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
@@ -6353,7 +6235,7 @@
       <c r="N4" s="76"/>
       <c r="O4" s="76"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="75"/>
       <c r="D5" s="76"/>
       <c r="E5" s="76"/>
@@ -6368,7 +6250,7 @@
       <c r="N5" s="76"/>
       <c r="O5" s="76"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="75"/>
       <c r="C6" s="76"/>
       <c r="D6" s="76"/>
@@ -6382,7 +6264,7 @@
       <c r="N6" s="76"/>
       <c r="O6" s="76"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="75"/>
       <c r="C7" s="76"/>
       <c r="D7" s="76"/>
@@ -6396,7 +6278,7 @@
       <c r="L7" s="76"/>
       <c r="M7" s="76"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="75"/>
       <c r="C8" s="76"/>
       <c r="D8" s="76"/>
@@ -6410,7 +6292,7 @@
       <c r="L8" s="76"/>
       <c r="M8" s="76"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="75"/>
       <c r="C9" s="76"/>
       <c r="D9" s="76"/>
@@ -6424,7 +6306,7 @@
       <c r="L9" s="76"/>
       <c r="M9" s="76"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="75"/>
       <c r="C10" s="76"/>
       <c r="D10" s="76"/>
@@ -6440,7 +6322,7 @@
       <c r="N10" s="76"/>
       <c r="O10" s="76"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="75"/>
       <c r="C11" s="76"/>
       <c r="D11" s="76"/>
@@ -6451,10 +6333,10 @@
       <c r="N11" s="76"/>
       <c r="O11" s="76"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="75"/>
       <c r="C12" s="164" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="76"/>
       <c r="K12" s="76"/>
@@ -6463,7 +6345,7 @@
       <c r="N12" s="76"/>
       <c r="O12" s="76"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" s="75"/>
       <c r="C13" s="76"/>
       <c r="D13" s="76"/>
@@ -6471,10 +6353,10 @@
         <v>355</v>
       </c>
       <c r="F13" s="76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H13" s="76"/>
       <c r="K13" s="76"/>
@@ -6483,7 +6365,7 @@
       <c r="N13" s="76"/>
       <c r="O13" s="76"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="75"/>
       <c r="C14" s="76"/>
       <c r="D14" s="76"/>
@@ -6499,7 +6381,7 @@
       <c r="N14" s="76"/>
       <c r="O14" s="76"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="75"/>
       <c r="C15" s="76"/>
       <c r="D15" s="76"/>
@@ -6507,7 +6389,7 @@
         <v>355</v>
       </c>
       <c r="F15" s="69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" s="76"/>
       <c r="I15" s="76"/>
@@ -6518,7 +6400,7 @@
       <c r="N15" s="76"/>
       <c r="O15" s="76"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="75"/>
       <c r="C16" s="76"/>
       <c r="D16" s="76"/>
@@ -6527,7 +6409,7 @@
         <v>14.791666666666666</v>
       </c>
       <c r="F16" s="69" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I16" s="76"/>
       <c r="J16" s="76"/>
@@ -6537,7 +6419,7 @@
       <c r="N16" s="76"/>
       <c r="O16" s="76"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="75"/>
       <c r="C17" s="76"/>
       <c r="D17" s="76"/>
@@ -6546,7 +6428,7 @@
         <v>1776.4791666666665</v>
       </c>
       <c r="F17" s="69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I17" s="76"/>
       <c r="J17" s="76"/>
@@ -6556,7 +6438,7 @@
       <c r="N17" s="76"/>
       <c r="O17" s="76"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="75"/>
       <c r="C18" s="76"/>
       <c r="D18" s="76"/>
@@ -6565,7 +6447,7 @@
         <v>0.49346643518518518</v>
       </c>
       <c r="F18" s="69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H18" s="76"/>
       <c r="I18" s="76"/>
@@ -6576,7 +6458,7 @@
       <c r="N18" s="76"/>
       <c r="O18" s="76"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="75"/>
       <c r="C19" s="76"/>
       <c r="D19" s="76"/>
@@ -6585,10 +6467,10 @@
         <v>493.46643518518516</v>
       </c>
       <c r="F19" s="69" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G19" s="69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H19" s="76"/>
       <c r="I19" s="76"/>
@@ -6599,7 +6481,7 @@
       <c r="N19" s="76"/>
       <c r="O19" s="76"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="75"/>
       <c r="C20" s="76"/>
       <c r="D20" s="76"/>
@@ -6612,7 +6494,7 @@
       <c r="N20" s="76"/>
       <c r="O20" s="76"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="75"/>
       <c r="C21" s="76"/>
       <c r="D21" s="76"/>
@@ -6621,10 +6503,10 @@
         <v>13383283.449999997</v>
       </c>
       <c r="F21" s="69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" s="69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H21" s="76"/>
       <c r="I21" s="76"/>
@@ -6635,7 +6517,7 @@
       <c r="N21" s="76"/>
       <c r="O21" s="76"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="75"/>
       <c r="C22" s="76"/>
       <c r="D22" s="76"/>
@@ -6644,10 +6526,10 @@
         <v>3717578.7361111101</v>
       </c>
       <c r="F22" s="76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G22" s="69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H22" s="76"/>
       <c r="I22" s="76"/>
@@ -6658,7 +6540,7 @@
       <c r="N22" s="76"/>
       <c r="O22" s="76"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="75"/>
       <c r="C23" s="76"/>
       <c r="D23" s="76"/>
@@ -6674,7 +6556,7 @@
       <c r="N23" s="76"/>
       <c r="O23" s="76"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="75"/>
       <c r="C24" s="76"/>
       <c r="D24" s="76"/>
@@ -6690,7 +6572,7 @@
       <c r="N24" s="76"/>
       <c r="O24" s="76"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="75"/>
       <c r="C25" s="76"/>
       <c r="D25" s="76"/>
@@ -6706,7 +6588,7 @@
       <c r="N25" s="76"/>
       <c r="O25" s="76"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="75"/>
       <c r="C26" s="76"/>
       <c r="D26" s="76"/>
@@ -6714,7 +6596,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F26" s="76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G26" s="76"/>
       <c r="H26" s="76"/>
@@ -6726,16 +6608,16 @@
       <c r="N26" s="76"/>
       <c r="O26" s="76"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="75"/>
       <c r="C27" s="76"/>
       <c r="D27" s="76"/>
       <c r="E27" s="76">
         <f>120.1*0.08988/3.6</f>
-        <v>2.9984966666666666</v>
+        <v>2.9984966666666661</v>
       </c>
       <c r="F27" s="76" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G27" s="76"/>
       <c r="H27" s="76"/>
@@ -6747,13 +6629,13 @@
       <c r="N27" s="76"/>
       <c r="O27" s="76"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="75"/>
       <c r="C28" s="76"/>
       <c r="D28" s="76"/>
       <c r="E28" s="76">
         <f>E27/E26</f>
-        <v>0.68147651515151508</v>
+        <v>0.68147651515151497</v>
       </c>
       <c r="F28" s="76"/>
       <c r="H28" s="76"/>
@@ -6765,7 +6647,7 @@
       <c r="N28" s="76"/>
       <c r="O28" s="76"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="75"/>
       <c r="I29" s="76"/>
       <c r="J29" s="76"/>
@@ -6775,7 +6657,7 @@
       <c r="N29" s="76"/>
       <c r="O29" s="76"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="75"/>
       <c r="C30" s="76"/>
       <c r="D30" s="76"/>
@@ -6788,7 +6670,7 @@
       <c r="N30" s="76"/>
       <c r="O30" s="76"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="75"/>
       <c r="H31" s="76"/>
       <c r="I31" s="76"/>
@@ -6799,10 +6681,10 @@
       <c r="N31" s="76"/>
       <c r="O31" s="76"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="75"/>
       <c r="C32" s="174" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D32" s="76"/>
       <c r="E32" s="69">
@@ -6810,10 +6692,10 @@
         <v>7.1020000000000008E-6</v>
       </c>
       <c r="F32" s="69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G32" s="69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H32" s="76"/>
       <c r="I32" s="76"/>
@@ -6824,7 +6706,7 @@
       <c r="N32" s="76"/>
       <c r="O32" s="76"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="75"/>
       <c r="C33" s="76"/>
       <c r="D33" s="76"/>
@@ -6833,10 +6715,10 @@
         <v>2.1306000000000002E-5</v>
       </c>
       <c r="F33" s="69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G33" s="69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H33" s="76"/>
       <c r="I33" s="76"/>
@@ -6847,7 +6729,7 @@
       <c r="N33" s="76"/>
       <c r="O33" s="76"/>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="75"/>
       <c r="C34" s="76"/>
       <c r="H34" s="76"/>
@@ -6859,7 +6741,7 @@
       <c r="N34" s="76"/>
       <c r="O34" s="76"/>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="75"/>
       <c r="I35" s="76"/>
       <c r="J35" s="76"/>
@@ -6869,7 +6751,7 @@
       <c r="N35" s="76"/>
       <c r="O35" s="76"/>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="75"/>
       <c r="I36" s="76"/>
       <c r="J36" s="76"/>
@@ -6879,10 +6761,10 @@
       <c r="N36" s="76"/>
       <c r="O36" s="76"/>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="75"/>
       <c r="C37" s="69" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J37" s="76"/>
       <c r="K37" s="76"/>
@@ -6891,7 +6773,7 @@
       <c r="N37" s="76"/>
       <c r="O37" s="76"/>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="75"/>
       <c r="J38" s="76"/>
       <c r="K38" s="76"/>
@@ -6900,7 +6782,7 @@
       <c r="N38" s="76"/>
       <c r="O38" s="76"/>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="75"/>
       <c r="J39" s="76"/>
       <c r="K39" s="76"/>
@@ -6909,7 +6791,7 @@
       <c r="N39" s="76"/>
       <c r="O39" s="76"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="75"/>
       <c r="J40" s="76"/>
       <c r="K40" s="76"/>
@@ -6918,7 +6800,7 @@
       <c r="N40" s="76"/>
       <c r="O40" s="76"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="75"/>
       <c r="J41" s="76"/>
       <c r="K41" s="76"/>
@@ -6927,7 +6809,7 @@
       <c r="N41" s="76"/>
       <c r="O41" s="76"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="75"/>
       <c r="K42" s="76"/>
       <c r="L42" s="76"/>
@@ -6935,16 +6817,16 @@
       <c r="N42" s="76"/>
       <c r="O42" s="76"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="75"/>
       <c r="E43" s="69">
         <v>120.1</v>
       </c>
       <c r="F43" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="G43" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K43" s="76"/>
       <c r="L43" s="76"/>
@@ -6952,17 +6834,17 @@
       <c r="N43" s="76"/>
       <c r="O43" s="76"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="75"/>
       <c r="E44" s="69">
         <f>E43/3.6</f>
         <v>33.361111111111107</v>
       </c>
       <c r="F44" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G44" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K44" s="76"/>
       <c r="L44" s="76"/>
@@ -6970,7 +6852,7 @@
       <c r="N44" s="76"/>
       <c r="O44" s="76"/>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="75"/>
       <c r="K45" s="76"/>
       <c r="L45" s="76"/>
@@ -6978,7 +6860,7 @@
       <c r="N45" s="76"/>
       <c r="O45" s="76"/>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="75"/>
       <c r="K46" s="76"/>
       <c r="L46" s="76"/>
@@ -6986,7 +6868,7 @@
       <c r="N46" s="76"/>
       <c r="O46" s="76"/>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="75"/>
       <c r="K47" s="76"/>
       <c r="L47" s="76"/>
@@ -6994,10 +6876,10 @@
       <c r="N47" s="76"/>
       <c r="O47" s="76"/>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="75"/>
       <c r="C48" s="164" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K48" s="76"/>
       <c r="L48" s="76"/>
@@ -7005,7 +6887,7 @@
       <c r="N48" s="76"/>
       <c r="O48" s="76"/>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="75"/>
       <c r="K49" s="76"/>
       <c r="L49" s="76"/>
@@ -7013,7 +6895,7 @@
       <c r="N49" s="76"/>
       <c r="O49" s="76"/>
     </row>
-    <row r="50" spans="2:15" ht="16">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="75"/>
       <c r="J50"/>
       <c r="K50" s="76"/>
@@ -7022,7 +6904,7 @@
       <c r="N50" s="76"/>
       <c r="O50" s="76"/>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="75"/>
       <c r="K51" s="76"/>
       <c r="L51" s="76"/>
@@ -7030,7 +6912,7 @@
       <c r="N51" s="76"/>
       <c r="O51" s="76"/>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="75"/>
       <c r="K52" s="76"/>
       <c r="L52" s="76"/>
@@ -7038,7 +6920,7 @@
       <c r="N52" s="76"/>
       <c r="O52" s="76"/>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="75"/>
       <c r="K53" s="76"/>
       <c r="L53" s="76"/>
@@ -7046,7 +6928,7 @@
       <c r="N53" s="76"/>
       <c r="O53" s="76"/>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="75"/>
       <c r="K54" s="76"/>
       <c r="L54" s="76"/>
@@ -7054,7 +6936,7 @@
       <c r="N54" s="76"/>
       <c r="O54" s="76"/>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="75"/>
       <c r="K55" s="76"/>
       <c r="L55" s="76"/>
@@ -7062,7 +6944,7 @@
       <c r="N55" s="76"/>
       <c r="O55" s="76"/>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B56" s="75"/>
       <c r="K56" s="76"/>
       <c r="L56" s="76"/>
@@ -7070,14 +6952,14 @@
       <c r="N56" s="76"/>
       <c r="O56" s="76"/>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" s="75"/>
       <c r="K57" s="76"/>
       <c r="L57" s="76"/>
       <c r="N57" s="76"/>
       <c r="O57" s="76"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" s="75"/>
       <c r="K58" s="76"/>
       <c r="L58" s="76"/>
@@ -7085,7 +6967,7 @@
       <c r="N58" s="76"/>
       <c r="O58" s="76"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="75"/>
       <c r="K59" s="76"/>
       <c r="L59" s="76"/>
@@ -7093,7 +6975,7 @@
       <c r="N59" s="76"/>
       <c r="O59" s="76"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" s="75"/>
       <c r="K60" s="76"/>
       <c r="L60" s="76"/>
@@ -7101,7 +6983,7 @@
       <c r="N60" s="76"/>
       <c r="O60" s="76"/>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" s="75"/>
       <c r="K61" s="76"/>
       <c r="L61" s="76"/>
@@ -7109,7 +6991,7 @@
       <c r="N61" s="76"/>
       <c r="O61" s="76"/>
     </row>
-    <row r="62" spans="2:15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" s="75"/>
       <c r="K62" s="76"/>
       <c r="L62" s="76"/>
@@ -7117,7 +6999,7 @@
       <c r="N62" s="76"/>
       <c r="O62" s="76"/>
     </row>
-    <row r="63" spans="2:15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" s="75"/>
       <c r="K63" s="76"/>
       <c r="L63" s="76"/>
@@ -7125,7 +7007,7 @@
       <c r="N63" s="76"/>
       <c r="O63" s="76"/>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="75"/>
       <c r="K64" s="76"/>
       <c r="L64" s="76"/>
@@ -7133,7 +7015,7 @@
       <c r="N64" s="76"/>
       <c r="O64" s="76"/>
     </row>
-    <row r="65" spans="2:15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="75"/>
       <c r="K65" s="76"/>
       <c r="L65" s="76"/>
@@ -7141,19 +7023,19 @@
       <c r="N65" s="76"/>
       <c r="O65" s="76"/>
     </row>
-    <row r="66" spans="2:15">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="75"/>
       <c r="E66" s="69">
         <v>54</v>
       </c>
       <c r="F66" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="G66" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="G66" s="69" t="s">
+      <c r="H66" s="69" t="s">
         <v>159</v>
-      </c>
-      <c r="H66" s="69" t="s">
-        <v>160</v>
       </c>
       <c r="K66" s="76"/>
       <c r="L66" s="76"/>
@@ -7161,14 +7043,14 @@
       <c r="N66" s="76"/>
       <c r="O66" s="76"/>
     </row>
-    <row r="67" spans="2:15">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" s="75"/>
       <c r="E67" s="69">
         <f>$E$44/E66</f>
         <v>0.61779835390946491</v>
       </c>
       <c r="G67" s="69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K67" s="76"/>
       <c r="L67" s="76"/>
@@ -7176,7 +7058,7 @@
       <c r="N67" s="76"/>
       <c r="O67" s="76"/>
     </row>
-    <row r="68" spans="2:15">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" s="75"/>
       <c r="K68" s="76"/>
       <c r="L68" s="76"/>
@@ -7184,19 +7066,19 @@
       <c r="N68" s="76"/>
       <c r="O68" s="76"/>
     </row>
-    <row r="69" spans="2:15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69" s="75"/>
       <c r="E69" s="69">
         <v>50</v>
       </c>
       <c r="F69" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="G69" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="G69" s="69" t="s">
-        <v>159</v>
-      </c>
       <c r="H69" s="69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K69" s="76"/>
       <c r="L69" s="76"/>
@@ -7204,38 +7086,38 @@
       <c r="N69" s="76"/>
       <c r="O69" s="76"/>
     </row>
-    <row r="70" spans="2:15">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" s="75"/>
       <c r="E70" s="69">
         <f>$E$44/E69</f>
         <v>0.66722222222222216</v>
       </c>
       <c r="G70" s="69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L70" s="76"/>
       <c r="M70" s="76"/>
       <c r="N70" s="76"/>
       <c r="O70" s="76"/>
     </row>
-    <row r="71" spans="2:15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71" s="75"/>
       <c r="L71" s="76"/>
       <c r="M71" s="76"/>
       <c r="N71" s="76"/>
       <c r="O71" s="76"/>
     </row>
-    <row r="72" spans="2:15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" s="75"/>
       <c r="L72" s="76"/>
       <c r="M72" s="76"/>
       <c r="N72" s="76"/>
       <c r="O72" s="76"/>
     </row>
-    <row r="73" spans="2:15">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" s="75"/>
       <c r="F73" s="69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K73" s="76"/>
       <c r="L73" s="76"/>
@@ -7243,7 +7125,7 @@
       <c r="N73" s="76"/>
       <c r="O73" s="76"/>
     </row>
-    <row r="74" spans="2:15">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" s="75"/>
       <c r="K74" s="76"/>
       <c r="L74" s="76"/>
@@ -7251,7 +7133,7 @@
       <c r="N74" s="76"/>
       <c r="O74" s="76"/>
     </row>
-    <row r="75" spans="2:15">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" s="75"/>
       <c r="K75" s="76"/>
       <c r="L75" s="76"/>
@@ -7259,255 +7141,255 @@
       <c r="N75" s="76"/>
       <c r="O75" s="76"/>
     </row>
-    <row r="76" spans="2:15">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76" s="75"/>
       <c r="L76" s="76"/>
       <c r="M76" s="76"/>
       <c r="N76" s="76"/>
       <c r="O76" s="76"/>
     </row>
-    <row r="77" spans="2:15">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B77" s="75"/>
       <c r="N77" s="76"/>
       <c r="O77" s="76"/>
     </row>
-    <row r="78" spans="2:15">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B78" s="75"/>
       <c r="N78" s="76"/>
       <c r="O78" s="76"/>
     </row>
-    <row r="79" spans="2:15">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="75"/>
       <c r="N79" s="76"/>
       <c r="O79" s="76"/>
     </row>
-    <row r="80" spans="2:15">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B80" s="75"/>
       <c r="C80" s="69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E80" s="69">
         <v>25</v>
       </c>
       <c r="F80" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G80" s="69" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N80" s="76"/>
       <c r="O80" s="76"/>
     </row>
-    <row r="81" spans="2:15">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B81" s="75"/>
       <c r="C81" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E81" s="69">
         <v>26</v>
       </c>
       <c r="F81" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G81" s="69" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N81" s="76"/>
       <c r="O81" s="76"/>
     </row>
-    <row r="82" spans="2:15">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B82" s="75"/>
       <c r="N82" s="76"/>
       <c r="O82" s="76"/>
     </row>
-    <row r="83" spans="2:15">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B83" s="75"/>
       <c r="N83" s="76"/>
       <c r="O83" s="76"/>
     </row>
-    <row r="84" spans="2:15">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B84" s="75"/>
       <c r="N84" s="76"/>
       <c r="O84" s="76"/>
     </row>
-    <row r="85" spans="2:15">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B85" s="75"/>
       <c r="N85" s="76"/>
       <c r="O85" s="76"/>
     </row>
-    <row r="86" spans="2:15">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B86" s="75"/>
       <c r="N86" s="76"/>
       <c r="O86" s="76"/>
     </row>
-    <row r="87" spans="2:15">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B87" s="75"/>
       <c r="N87" s="76"/>
       <c r="O87" s="76"/>
     </row>
-    <row r="88" spans="2:15">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B88" s="75"/>
       <c r="N88" s="76"/>
       <c r="O88" s="76"/>
     </row>
-    <row r="89" spans="2:15">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B89" s="75"/>
       <c r="E89" s="69">
         <v>8585</v>
       </c>
       <c r="F89" s="69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N89" s="76"/>
       <c r="O89" s="76"/>
     </row>
-    <row r="90" spans="2:15">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B90" s="75"/>
       <c r="E90" s="69">
         <f>E89/(365*24)</f>
         <v>0.98002283105022836</v>
       </c>
       <c r="G90" s="69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N90" s="76"/>
       <c r="O90" s="76"/>
     </row>
-    <row r="91" spans="2:15">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B91" s="75"/>
       <c r="N91" s="76"/>
       <c r="O91" s="76"/>
     </row>
-    <row r="92" spans="2:15">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B92" s="75"/>
       <c r="N92" s="76"/>
       <c r="O92" s="76"/>
     </row>
-    <row r="93" spans="2:15">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B93" s="75"/>
       <c r="N93" s="76"/>
       <c r="O93" s="76"/>
     </row>
-    <row r="94" spans="2:15">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B94" s="75"/>
       <c r="N94" s="76"/>
       <c r="O94" s="76"/>
     </row>
-    <row r="95" spans="2:15">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B95" s="75"/>
       <c r="N95" s="76"/>
       <c r="O95" s="76"/>
     </row>
-    <row r="96" spans="2:15">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B96" s="75"/>
       <c r="N96" s="76"/>
       <c r="O96" s="76"/>
     </row>
-    <row r="97" spans="2:15">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B97" s="75"/>
       <c r="N97" s="76"/>
       <c r="O97" s="76"/>
     </row>
-    <row r="98" spans="2:15">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B98" s="75"/>
       <c r="N98" s="76"/>
       <c r="O98" s="76"/>
     </row>
-    <row r="99" spans="2:15">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B99" s="75"/>
       <c r="N99" s="76"/>
       <c r="O99" s="76"/>
     </row>
-    <row r="100" spans="2:15">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B100" s="75"/>
       <c r="N100" s="76"/>
       <c r="O100" s="76"/>
     </row>
-    <row r="101" spans="2:15">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B101" s="75"/>
       <c r="N101" s="76"/>
       <c r="O101" s="76"/>
     </row>
-    <row r="102" spans="2:15">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B102" s="75"/>
       <c r="N102" s="76"/>
       <c r="O102" s="76"/>
     </row>
-    <row r="103" spans="2:15">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B103" s="75"/>
       <c r="N103" s="76"/>
       <c r="O103" s="76"/>
     </row>
-    <row r="104" spans="2:15">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B104" s="75"/>
       <c r="N104" s="76"/>
       <c r="O104" s="76"/>
     </row>
-    <row r="105" spans="2:15">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B105" s="75"/>
       <c r="N105" s="76"/>
       <c r="O105" s="76"/>
     </row>
-    <row r="106" spans="2:15">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B106" s="75"/>
       <c r="N106" s="76"/>
       <c r="O106" s="76"/>
     </row>
-    <row r="107" spans="2:15">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B107" s="75"/>
       <c r="N107" s="76"/>
       <c r="O107" s="76"/>
     </row>
-    <row r="108" spans="2:15">
+    <row r="108" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B108" s="75"/>
       <c r="N108" s="76"/>
       <c r="O108" s="76"/>
     </row>
-    <row r="109" spans="2:15">
+    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B109" s="75"/>
       <c r="N109" s="76"/>
       <c r="O109" s="76"/>
     </row>
-    <row r="110" spans="2:15">
+    <row r="110" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B110" s="75"/>
       <c r="N110" s="76"/>
       <c r="O110" s="76"/>
     </row>
-    <row r="111" spans="2:15">
+    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B111" s="75"/>
       <c r="N111" s="76"/>
       <c r="O111" s="76"/>
     </row>
-    <row r="112" spans="2:15">
+    <row r="112" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B112" s="75"/>
       <c r="E112" s="69">
         <v>1100</v>
       </c>
       <c r="F112" s="69" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N112" s="76"/>
       <c r="O112" s="76"/>
     </row>
-    <row r="113" spans="2:15">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B113" s="75"/>
       <c r="C113" s="69" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E113" s="69">
         <f>$E$19</f>
         <v>493.46643518518516</v>
       </c>
       <c r="F113" s="69" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G113" s="69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N113" s="76"/>
       <c r="O113" s="76"/>
     </row>
-    <row r="114" spans="2:15">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B114" s="75"/>
       <c r="E114" s="69">
         <f>E113*E112</f>
@@ -7522,41 +7404,41 @@
       <c r="N114" s="76"/>
       <c r="O114" s="76"/>
     </row>
-    <row r="115" spans="2:15">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B115" s="75"/>
       <c r="N115" s="76"/>
       <c r="O115" s="76"/>
     </row>
-    <row r="116" spans="2:15">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B116" s="75"/>
       <c r="E116" s="69">
         <v>930</v>
       </c>
       <c r="F116" s="69" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N116" s="76"/>
       <c r="O116" s="76"/>
     </row>
-    <row r="117" spans="2:15">
+    <row r="117" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B117" s="75"/>
       <c r="C117" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E117" s="69">
         <f>$E$19</f>
         <v>493.46643518518516</v>
       </c>
       <c r="F117" s="69" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G117" s="69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N117" s="76"/>
       <c r="O117" s="76"/>
     </row>
-    <row r="118" spans="2:15">
+    <row r="118" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B118" s="75"/>
       <c r="E118" s="69">
         <f>E117*E116</f>
@@ -7571,62 +7453,62 @@
       <c r="N118" s="76"/>
       <c r="O118" s="76"/>
     </row>
-    <row r="119" spans="2:15">
+    <row r="119" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B119" s="75"/>
       <c r="N119" s="76"/>
       <c r="O119" s="76"/>
     </row>
-    <row r="120" spans="2:15">
+    <row r="120" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B120" s="75"/>
       <c r="N120" s="76"/>
       <c r="O120" s="76"/>
     </row>
-    <row r="121" spans="2:15">
+    <row r="121" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B121" s="75"/>
       <c r="N121" s="76"/>
       <c r="O121" s="76"/>
     </row>
-    <row r="122" spans="2:15">
+    <row r="122" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B122" s="75"/>
       <c r="N122" s="76"/>
       <c r="O122" s="76"/>
     </row>
-    <row r="123" spans="2:15">
+    <row r="123" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B123" s="75"/>
       <c r="N123" s="76"/>
       <c r="O123" s="76"/>
     </row>
-    <row r="124" spans="2:15">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B124" s="75"/>
     </row>
-    <row r="125" spans="2:15">
+    <row r="125" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B125" s="75"/>
     </row>
-    <row r="126" spans="2:15">
+    <row r="126" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B126" s="75"/>
     </row>
-    <row r="127" spans="2:15">
+    <row r="127" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B127" s="75"/>
     </row>
-    <row r="128" spans="2:15">
+    <row r="128" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B128" s="75"/>
     </row>
-    <row r="129" spans="2:8">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B129" s="75"/>
     </row>
-    <row r="130" spans="2:8">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B130" s="75"/>
     </row>
-    <row r="131" spans="2:8">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B131" s="75"/>
     </row>
-    <row r="132" spans="2:8">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B132" s="75"/>
     </row>
-    <row r="133" spans="2:8">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B133" s="75"/>
       <c r="C133" s="164" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D133" s="164"/>
       <c r="E133" s="154"/>
@@ -7634,7 +7516,7 @@
       <c r="G133" s="154"/>
       <c r="H133" s="154"/>
     </row>
-    <row r="134" spans="2:8">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B134" s="75"/>
       <c r="C134" s="154"/>
       <c r="D134" s="154"/>
@@ -7643,7 +7525,7 @@
       <c r="G134" s="154"/>
       <c r="H134" s="154"/>
     </row>
-    <row r="135" spans="2:8">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B135" s="75"/>
       <c r="C135" s="154" t="s">
         <v>22</v>
@@ -7654,10 +7536,10 @@
       <c r="G135" s="154"/>
       <c r="H135" s="154"/>
     </row>
-    <row r="136" spans="2:8">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B136" s="75"/>
       <c r="C136" s="154" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D136" s="154"/>
       <c r="E136" s="154"/>
@@ -7665,27 +7547,27 @@
       <c r="G136" s="154"/>
       <c r="H136" s="154"/>
     </row>
-    <row r="137" spans="2:8">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B137" s="75"/>
       <c r="C137" s="154"/>
       <c r="D137" s="154"/>
     </row>
-    <row r="138" spans="2:8">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B138" s="75"/>
       <c r="C138" s="154"/>
       <c r="D138" s="154"/>
     </row>
-    <row r="139" spans="2:8">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B139" s="75"/>
       <c r="C139" s="154"/>
       <c r="D139" s="154"/>
     </row>
-    <row r="140" spans="2:8">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B140" s="75"/>
       <c r="C140" s="154"/>
       <c r="D140" s="154"/>
     </row>
-    <row r="141" spans="2:8">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B141" s="75"/>
       <c r="C141" s="154"/>
       <c r="D141" s="154"/>
@@ -7694,7 +7576,7 @@
       <c r="G141" s="154"/>
       <c r="H141" s="154"/>
     </row>
-    <row r="142" spans="2:8">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B142" s="75"/>
       <c r="C142" s="154"/>
       <c r="D142" s="154"/>
@@ -7703,7 +7585,7 @@
       <c r="G142" s="154"/>
       <c r="H142" s="154"/>
     </row>
-    <row r="143" spans="2:8">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B143" s="75"/>
       <c r="C143" s="154"/>
       <c r="D143" s="154"/>
@@ -7711,14 +7593,14 @@
         <v>67</v>
       </c>
       <c r="F143" s="154" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G143" s="154" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H143" s="154"/>
     </row>
-    <row r="144" spans="2:8">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B144" s="75"/>
       <c r="C144" s="154"/>
       <c r="D144" s="154"/>
@@ -7727,11 +7609,11 @@
       </c>
       <c r="F144" s="154"/>
       <c r="G144" s="154" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H144" s="154"/>
     </row>
-    <row r="145" spans="2:8">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B145" s="75"/>
       <c r="C145" s="154"/>
       <c r="D145" s="154"/>
@@ -7740,7 +7622,7 @@
       <c r="G145" s="154"/>
       <c r="H145" s="154"/>
     </row>
-    <row r="146" spans="2:8">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B146" s="75"/>
       <c r="C146" s="154"/>
       <c r="D146" s="154"/>
@@ -7749,7 +7631,7 @@
       <c r="G146" s="154"/>
       <c r="H146" s="154"/>
     </row>
-    <row r="147" spans="2:8">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B147" s="75"/>
       <c r="C147" s="154"/>
       <c r="D147" s="154"/>
@@ -7758,7 +7640,7 @@
       <c r="G147" s="154"/>
       <c r="H147" s="154"/>
     </row>
-    <row r="148" spans="2:8">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" s="75"/>
       <c r="C148" s="154"/>
       <c r="D148" s="154"/>
@@ -7767,7 +7649,7 @@
       <c r="G148" s="154"/>
       <c r="H148" s="154"/>
     </row>
-    <row r="149" spans="2:8">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B149" s="75"/>
       <c r="C149" s="154"/>
       <c r="D149" s="154"/>
@@ -7776,7 +7658,7 @@
       <c r="G149" s="154"/>
       <c r="H149" s="154"/>
     </row>
-    <row r="150" spans="2:8">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B150" s="75"/>
       <c r="C150" s="154"/>
       <c r="D150" s="154"/>
@@ -7784,14 +7666,14 @@
         <v>1.07</v>
       </c>
       <c r="F150" s="154" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G150" s="154" t="s">
         <v>22</v>
       </c>
       <c r="H150" s="154"/>
     </row>
-    <row r="151" spans="2:8">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B151" s="75"/>
       <c r="C151" s="154"/>
       <c r="D151" s="154"/>
@@ -7799,14 +7681,14 @@
         <v>1070</v>
       </c>
       <c r="F151" s="154" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G151" s="154" t="s">
         <v>22</v>
       </c>
       <c r="H151" s="154"/>
     </row>
-    <row r="152" spans="2:8">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B152" s="75"/>
       <c r="C152" s="154"/>
       <c r="D152" s="154"/>
@@ -7814,14 +7696,14 @@
         <v>493.46643519999998</v>
       </c>
       <c r="F152" s="154" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G152" s="154" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H152" s="154"/>
     </row>
-    <row r="153" spans="2:8">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B153" s="75"/>
       <c r="C153" s="154"/>
       <c r="D153" s="154"/>
@@ -7836,7 +7718,7 @@
       </c>
       <c r="H153" s="154"/>
     </row>
-    <row r="154" spans="2:8">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B154" s="75"/>
       <c r="C154" s="154"/>
       <c r="D154" s="154"/>
@@ -7845,7 +7727,7 @@
       <c r="G154" s="154"/>
       <c r="H154" s="154"/>
     </row>
-    <row r="155" spans="2:8">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B155" s="75"/>
       <c r="C155" s="154"/>
       <c r="D155" s="154"/>
@@ -7854,7 +7736,7 @@
       <c r="G155" s="154"/>
       <c r="H155" s="154"/>
     </row>
-    <row r="156" spans="2:8">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" s="75"/>
       <c r="C156" s="154"/>
       <c r="D156" s="154"/>
@@ -7863,7 +7745,7 @@
       <c r="G156" s="154"/>
       <c r="H156" s="154"/>
     </row>
-    <row r="157" spans="2:8">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B157" s="75"/>
       <c r="C157" s="154"/>
       <c r="D157" s="154"/>
@@ -7871,14 +7753,14 @@
         <v>4</v>
       </c>
       <c r="F157" s="154" t="s">
+        <v>177</v>
+      </c>
+      <c r="G157" s="154" t="s">
         <v>178</v>
       </c>
-      <c r="G157" s="154" t="s">
-        <v>179</v>
-      </c>
       <c r="H157" s="154"/>
     </row>
-    <row r="158" spans="2:8">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B158" s="75"/>
       <c r="C158" s="154"/>
       <c r="D158" s="154"/>
@@ -7889,11 +7771,11 @@
         <v>20</v>
       </c>
       <c r="G158" s="154" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H158" s="154"/>
     </row>
-    <row r="159" spans="2:8">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B159" s="75"/>
       <c r="C159" s="154"/>
       <c r="D159" s="154"/>
@@ -7901,14 +7783,14 @@
         <v>20396.612649999999</v>
       </c>
       <c r="F159" s="154" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G159" s="154" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H159" s="154"/>
     </row>
-    <row r="160" spans="2:8">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B160" s="75"/>
       <c r="C160" s="154"/>
       <c r="D160" s="154"/>
@@ -7917,7 +7799,7 @@
       <c r="G160" s="154"/>
       <c r="H160" s="154"/>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B161" s="75"/>
       <c r="C161" s="154"/>
       <c r="D161" s="154"/>
@@ -7925,14 +7807,14 @@
         <v>0</v>
       </c>
       <c r="F161" s="154" t="s">
+        <v>181</v>
+      </c>
+      <c r="G161" s="154" t="s">
         <v>182</v>
       </c>
-      <c r="G161" s="154" t="s">
-        <v>183</v>
-      </c>
       <c r="H161" s="154"/>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B162" s="75"/>
       <c r="C162" s="154"/>
       <c r="D162" s="154"/>
@@ -7941,7 +7823,7 @@
       <c r="G162" s="154"/>
       <c r="H162" s="154"/>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B163" s="75"/>
       <c r="C163" s="154"/>
       <c r="D163" s="154"/>
@@ -7949,14 +7831,14 @@
         <v>25</v>
       </c>
       <c r="F163" s="154" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G163" s="154" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H163" s="154"/>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B164" s="75"/>
       <c r="C164" s="154"/>
       <c r="D164" s="154"/>
@@ -7965,7 +7847,7 @@
       <c r="G164" s="154"/>
       <c r="H164" s="154"/>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B165" s="75"/>
       <c r="C165" s="154"/>
       <c r="D165" s="154"/>
@@ -7974,7 +7856,7 @@
       <c r="G165" s="154"/>
       <c r="H165" s="154"/>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B166" s="75"/>
       <c r="C166" s="154"/>
       <c r="D166" s="154"/>
@@ -7983,145 +7865,145 @@
       </c>
       <c r="F166" s="154"/>
       <c r="G166" s="154" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H166" s="154"/>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="154"/>
       <c r="B167" s="155"/>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="154"/>
       <c r="B168" s="155"/>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="154"/>
       <c r="B169" s="155"/>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="154"/>
       <c r="B170" s="155"/>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="154"/>
       <c r="B171" s="155"/>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="154"/>
       <c r="B172" s="155"/>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="154"/>
       <c r="B173" s="155"/>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="154"/>
       <c r="B174" s="155"/>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="154"/>
       <c r="B175" s="155"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="154"/>
       <c r="B176" s="155"/>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="154"/>
       <c r="B177" s="155"/>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="154"/>
       <c r="B178" s="155"/>
       <c r="C178" s="73" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="154"/>
       <c r="B179" s="155"/>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="154"/>
       <c r="B180" s="155"/>
       <c r="C180" s="69" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="154"/>
       <c r="B181" s="155"/>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="154"/>
       <c r="B182" s="155"/>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="154"/>
       <c r="B183" s="155"/>
       <c r="E183" s="69">
         <v>1</v>
       </c>
       <c r="F183" s="69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G183" s="69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K183" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="L183" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="L183" s="76" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12">
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="154"/>
       <c r="B184" s="155"/>
       <c r="L184" s="76" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="154"/>
       <c r="B185" s="155"/>
       <c r="L185" s="76" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="154"/>
       <c r="B186" s="155"/>
       <c r="L186" s="76" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="154"/>
       <c r="B187" s="155"/>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="154"/>
       <c r="B188" s="155"/>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="154"/>
       <c r="B189" s="155"/>
       <c r="E189" s="69">
         <v>0.86</v>
       </c>
       <c r="G189" s="69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K189" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="L189" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="L189" s="76" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12">
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="154"/>
       <c r="B190" s="155"/>
       <c r="E190" s="69">
@@ -8129,54 +8011,54 @@
         <v>7533.5999999999995</v>
       </c>
       <c r="G190" s="69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L190" s="76" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="154"/>
       <c r="B191" s="155"/>
       <c r="L191" s="76" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="154"/>
       <c r="B192" s="155"/>
       <c r="L192" s="76" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="154"/>
       <c r="B193" s="155"/>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="154"/>
       <c r="B194" s="155"/>
     </row>
-    <row r="195" spans="1:12">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="154"/>
       <c r="B195" s="155"/>
       <c r="E195" s="69">
         <v>10</v>
       </c>
       <c r="F195" s="69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G195" s="69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K195" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="L195" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="L195" s="76" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12">
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="154"/>
       <c r="B196" s="155"/>
       <c r="E196" s="76">
@@ -8185,369 +8067,369 @@
       </c>
       <c r="F196" s="76"/>
       <c r="G196" s="76" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H196" s="76"/>
       <c r="L196" s="76" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="154"/>
       <c r="B197" s="155"/>
       <c r="L197" s="76" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="154"/>
       <c r="B198" s="155"/>
       <c r="L198" s="76" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="154"/>
       <c r="B199" s="155"/>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="154"/>
       <c r="B200" s="155"/>
     </row>
-    <row r="201" spans="1:12">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="154"/>
       <c r="B201" s="155"/>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="154"/>
       <c r="B202" s="155"/>
     </row>
-    <row r="203" spans="1:12">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="154"/>
       <c r="B203" s="155"/>
     </row>
-    <row r="204" spans="1:12">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="154"/>
       <c r="B204" s="155"/>
     </row>
-    <row r="205" spans="1:12">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="154"/>
       <c r="B205" s="155"/>
     </row>
-    <row r="206" spans="1:12">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="154"/>
       <c r="B206" s="155"/>
     </row>
-    <row r="207" spans="1:12">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="154"/>
       <c r="B207" s="155"/>
     </row>
-    <row r="208" spans="1:12">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="154"/>
       <c r="B208" s="155"/>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="154"/>
       <c r="B209" s="155"/>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="154"/>
       <c r="B210" s="155"/>
       <c r="K210" s="160"/>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="154"/>
       <c r="B211" s="155"/>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="154"/>
       <c r="B212" s="155"/>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="154"/>
       <c r="B213" s="155"/>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="154"/>
       <c r="B214" s="155"/>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="154"/>
       <c r="B215" s="155"/>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="154"/>
       <c r="B216" s="155"/>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="154"/>
       <c r="B217" s="155"/>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="154"/>
       <c r="B218" s="155"/>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="154"/>
       <c r="B219" s="155"/>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="154"/>
       <c r="B220" s="155"/>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="154"/>
       <c r="B221" s="155"/>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="154"/>
       <c r="B222" s="155"/>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="154"/>
       <c r="B223" s="155"/>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="154"/>
       <c r="B224" s="155"/>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="154"/>
       <c r="B225" s="155"/>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="154"/>
       <c r="B226" s="155"/>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="154"/>
       <c r="B227" s="155"/>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="154"/>
       <c r="B228" s="155"/>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="154"/>
       <c r="B229" s="155"/>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="154"/>
       <c r="B230" s="155"/>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="154"/>
       <c r="B231" s="155"/>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="154"/>
       <c r="B232" s="155"/>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="154"/>
       <c r="B233" s="155"/>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="154"/>
       <c r="B234" s="155"/>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="154"/>
       <c r="B235" s="155"/>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="154"/>
       <c r="B236" s="155"/>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="154"/>
       <c r="B237" s="155"/>
       <c r="D237" s="76"/>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="154"/>
       <c r="B238" s="155"/>
       <c r="D238" s="76"/>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="154"/>
       <c r="B239" s="155"/>
       <c r="D239" s="76"/>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="154"/>
       <c r="B240" s="155"/>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="154"/>
       <c r="B241" s="155"/>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="154"/>
       <c r="B242" s="155"/>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="154"/>
       <c r="B243" s="155"/>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="154"/>
       <c r="B244" s="155"/>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="154"/>
       <c r="B245" s="155"/>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="154"/>
       <c r="B246" s="155"/>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="154"/>
       <c r="B247" s="155"/>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="154"/>
       <c r="B248" s="155"/>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="154"/>
       <c r="B249" s="155"/>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="154"/>
       <c r="B250" s="155"/>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="154"/>
       <c r="B251" s="155"/>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="154"/>
       <c r="B252" s="155"/>
       <c r="C252" s="167" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E252" s="76"/>
       <c r="F252" s="76"/>
       <c r="G252" s="76"/>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="154"/>
       <c r="B253" s="155"/>
       <c r="E253" s="76"/>
       <c r="F253" s="76"/>
       <c r="G253" s="76"/>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="154"/>
       <c r="B254" s="155"/>
       <c r="E254" s="76"/>
       <c r="F254" s="76"/>
       <c r="G254" s="76"/>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="154"/>
       <c r="B255" s="155"/>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="154"/>
       <c r="B256" s="155"/>
       <c r="E256" s="76"/>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="154"/>
       <c r="B257" s="155"/>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="154"/>
       <c r="B258" s="155"/>
       <c r="C258" s="73" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="154"/>
       <c r="B259" s="155"/>
       <c r="C259" s="69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E259" s="76"/>
       <c r="F259" s="76"/>
       <c r="G259" s="76"/>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="154"/>
       <c r="B260" s="155"/>
       <c r="C260" s="76" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="154"/>
       <c r="B261" s="155"/>
       <c r="C261" s="76" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="154"/>
       <c r="B262" s="155"/>
       <c r="C262" s="76"/>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="154"/>
       <c r="B263" s="155"/>
       <c r="C263" s="69" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="154"/>
       <c r="B264" s="155"/>
       <c r="C264" s="69" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="154"/>
       <c r="B265" s="155"/>
       <c r="C265" s="69" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="154"/>
       <c r="B266" s="155"/>
       <c r="C266" s="69" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="154"/>
       <c r="B267" s="155"/>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="154"/>
       <c r="B268" s="155"/>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="154"/>
       <c r="B269" s="155"/>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="154"/>
       <c r="B270" s="155"/>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="154"/>
       <c r="B271" s="155"/>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="154"/>
       <c r="B272" s="155"/>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="154"/>
       <c r="B273" s="155"/>
       <c r="D273" s="76"/>
@@ -8556,61 +8438,61 @@
         <v>#REF!</v>
       </c>
       <c r="F273" s="69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G273" s="69" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="154"/>
       <c r="B274" s="155"/>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="154"/>
       <c r="B275" s="155"/>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="154"/>
       <c r="B276" s="155"/>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="154"/>
       <c r="B277" s="155"/>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="154"/>
       <c r="B278" s="155"/>
       <c r="F278" s="137"/>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="154"/>
       <c r="B279" s="155"/>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="154"/>
       <c r="B280" s="155"/>
       <c r="E280" s="69">
         <v>0.97</v>
       </c>
       <c r="G280" s="69" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="154"/>
       <c r="B281" s="155"/>
       <c r="E281" s="138">
         <v>86</v>
       </c>
       <c r="F281" s="69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G281" s="69" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="154"/>
       <c r="B282" s="155"/>
       <c r="E282" s="69">
@@ -8618,10 +8500,10 @@
         <v>0.86</v>
       </c>
       <c r="G282" s="69" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="154"/>
       <c r="B283" s="155"/>
       <c r="E283" s="69">
@@ -8629,158 +8511,158 @@
         <v>7533.5999999999995</v>
       </c>
       <c r="F283" s="69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G283" s="69" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="154"/>
       <c r="B284" s="155"/>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="154"/>
       <c r="B285" s="155"/>
       <c r="C285" s="76"/>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="154"/>
       <c r="B286" s="155"/>
       <c r="C286" s="76"/>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="154"/>
       <c r="B287" s="155"/>
       <c r="C287" s="76"/>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="154"/>
       <c r="B288" s="155"/>
       <c r="C288" s="76"/>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="154"/>
       <c r="B289" s="155"/>
       <c r="C289" s="76"/>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="154"/>
       <c r="B290" s="155"/>
       <c r="C290" s="76"/>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="154"/>
       <c r="B291" s="155"/>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="154"/>
       <c r="B292" s="155"/>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="154"/>
       <c r="B293" s="155"/>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="154"/>
       <c r="B294" s="155"/>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="154"/>
       <c r="B295" s="155"/>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="154"/>
       <c r="B296" s="155"/>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="154"/>
       <c r="B297" s="155"/>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="154"/>
       <c r="B298" s="155"/>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="154"/>
       <c r="B299" s="155"/>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="154"/>
       <c r="B300" s="155"/>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="154"/>
       <c r="B301" s="155"/>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="154"/>
       <c r="B302" s="155"/>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="154"/>
       <c r="B303" s="155"/>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="154"/>
       <c r="B304" s="155"/>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="154"/>
       <c r="B305" s="155"/>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="154"/>
       <c r="B306" s="155"/>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="154"/>
       <c r="B307" s="155"/>
       <c r="E307" s="69">
         <v>1</v>
       </c>
       <c r="F307" s="69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G307" s="69" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="154"/>
       <c r="B308" s="155"/>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="154"/>
       <c r="B309" s="155"/>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="154"/>
       <c r="B310" s="155"/>
       <c r="E310" s="69">
         <v>20</v>
       </c>
       <c r="F310" s="69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G310" s="69" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="154"/>
       <c r="B311" s="155"/>
       <c r="E311" s="69">
         <v>10</v>
       </c>
       <c r="F311" s="69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G311" s="69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" s="154"/>
       <c r="B312" s="155"/>
       <c r="E312" s="69">
@@ -8788,165 +8670,165 @@
         <v>0.1</v>
       </c>
       <c r="G312" s="69" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" s="154"/>
       <c r="B313" s="155"/>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" s="154"/>
       <c r="B314" s="155"/>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="154"/>
       <c r="B315" s="155"/>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" s="154"/>
       <c r="B316" s="155"/>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="154"/>
       <c r="B317" s="155"/>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" s="154"/>
       <c r="B318" s="155"/>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="154"/>
       <c r="B319" s="155"/>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" s="154"/>
       <c r="B320" s="155"/>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="154"/>
       <c r="B321" s="155"/>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="154"/>
       <c r="B322" s="155"/>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="154"/>
       <c r="B323" s="155"/>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="154"/>
       <c r="B324" s="155"/>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="154"/>
       <c r="B325" s="155"/>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="154"/>
       <c r="B326" s="155"/>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="154"/>
       <c r="B327" s="155"/>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="154"/>
       <c r="B328" s="155"/>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="154"/>
       <c r="B329" s="155"/>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="154"/>
       <c r="B330" s="155"/>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="154"/>
       <c r="B331" s="155"/>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="154"/>
       <c r="B332" s="155"/>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="154"/>
       <c r="B333" s="155"/>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="154"/>
       <c r="B334" s="155"/>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="154"/>
       <c r="B335" s="155"/>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="154"/>
       <c r="B336" s="155"/>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337" s="154"/>
       <c r="B337" s="155"/>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338" s="154"/>
       <c r="B338" s="155"/>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339" s="154"/>
       <c r="B339" s="155"/>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340" s="154"/>
       <c r="B340" s="155"/>
     </row>
-    <row r="341" spans="1:9">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341" s="154"/>
       <c r="B341" s="155"/>
     </row>
-    <row r="342" spans="1:9">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A342" s="154"/>
       <c r="B342" s="155"/>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A343" s="154"/>
       <c r="B343" s="155"/>
     </row>
-    <row r="344" spans="1:9">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A344" s="154"/>
       <c r="B344" s="155"/>
     </row>
-    <row r="345" spans="1:9">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A345" s="154"/>
       <c r="B345" s="155"/>
     </row>
-    <row r="346" spans="1:9">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A346" s="154"/>
       <c r="B346" s="155"/>
     </row>
-    <row r="347" spans="1:9">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347" s="154"/>
       <c r="B347" s="155"/>
     </row>
-    <row r="348" spans="1:9">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A348" s="154"/>
       <c r="B348" s="155"/>
       <c r="E348" s="154">
         <v>473976</v>
       </c>
       <c r="F348" s="154" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G348" s="154" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H348" s="154"/>
       <c r="I348" s="154"/>
     </row>
-    <row r="349" spans="1:9">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A349" s="154"/>
       <c r="B349" s="155"/>
       <c r="E349" s="154">
@@ -8956,12 +8838,12 @@
         <v>20</v>
       </c>
       <c r="G349" s="154" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H349" s="154"/>
       <c r="I349" s="154"/>
     </row>
-    <row r="350" spans="1:9">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A350" s="154"/>
       <c r="B350" s="155"/>
       <c r="E350" s="154">
@@ -8971,12 +8853,12 @@
         <v>20</v>
       </c>
       <c r="G350" s="154" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H350" s="154"/>
       <c r="I350" s="154"/>
     </row>
-    <row r="351" spans="1:9">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A351" s="154"/>
       <c r="B351" s="155"/>
       <c r="E351" s="154"/>
@@ -8985,7 +8867,7 @@
       <c r="H351" s="154"/>
       <c r="I351" s="154"/>
     </row>
-    <row r="352" spans="1:9">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352" s="154"/>
       <c r="B352" s="155"/>
       <c r="E352" s="154"/>
@@ -8994,7 +8876,7 @@
       <c r="H352" s="154"/>
       <c r="I352" s="154"/>
     </row>
-    <row r="353" spans="1:9">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A353" s="154"/>
       <c r="B353" s="155"/>
       <c r="E353" s="154"/>
@@ -9003,37 +8885,37 @@
       <c r="H353" s="154"/>
       <c r="I353" s="154"/>
     </row>
-    <row r="354" spans="1:9">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A354" s="154"/>
       <c r="B354" s="155"/>
       <c r="E354" s="154">
         <v>0</v>
       </c>
       <c r="F354" s="154" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G354" s="154" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H354" s="154"/>
       <c r="I354" s="154"/>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A355" s="154"/>
       <c r="B355" s="155"/>
       <c r="E355" s="154">
         <v>0</v>
       </c>
       <c r="F355" s="154" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G355" s="154" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H355" s="154"/>
       <c r="I355" s="154"/>
     </row>
-    <row r="356" spans="1:9">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A356" s="154"/>
       <c r="B356" s="155"/>
       <c r="E356" s="154"/>
@@ -9042,7 +8924,7 @@
       <c r="H356" s="154"/>
       <c r="I356" s="154"/>
     </row>
-    <row r="357" spans="1:9">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A357" s="154"/>
       <c r="B357" s="155"/>
       <c r="E357" s="154"/>
@@ -9051,7 +8933,7 @@
       <c r="H357" s="154"/>
       <c r="I357" s="154"/>
     </row>
-    <row r="358" spans="1:9">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A358" s="154"/>
       <c r="B358" s="155"/>
       <c r="E358" s="154"/>
@@ -9060,7 +8942,7 @@
       <c r="H358" s="154"/>
       <c r="I358" s="154"/>
     </row>
-    <row r="359" spans="1:9">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A359" s="154"/>
       <c r="B359" s="155"/>
       <c r="E359" s="154"/>
@@ -9069,22 +8951,22 @@
       <c r="H359" s="154"/>
       <c r="I359" s="154"/>
     </row>
-    <row r="360" spans="1:9">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A360" s="154"/>
       <c r="B360" s="155"/>
       <c r="E360" s="154">
         <v>473976</v>
       </c>
       <c r="F360" s="154" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G360" s="154" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H360" s="154"/>
       <c r="I360" s="154"/>
     </row>
-    <row r="361" spans="1:9">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A361" s="154"/>
       <c r="B361" s="155"/>
       <c r="E361" s="154">
@@ -9094,12 +8976,12 @@
         <v>20</v>
       </c>
       <c r="G361" s="154" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H361" s="154"/>
       <c r="I361" s="154"/>
     </row>
-    <row r="362" spans="1:9">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A362" s="154"/>
       <c r="B362" s="155"/>
       <c r="E362" s="154"/>
@@ -9108,7 +8990,7 @@
       <c r="H362" s="154"/>
       <c r="I362" s="154"/>
     </row>
-    <row r="363" spans="1:9">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A363" s="154"/>
       <c r="B363" s="155"/>
       <c r="E363" s="154"/>
@@ -9117,7 +8999,7 @@
       <c r="H363" s="154"/>
       <c r="I363" s="154"/>
     </row>
-    <row r="364" spans="1:9">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A364" s="154"/>
       <c r="B364" s="155"/>
       <c r="E364" s="154"/>
@@ -9126,7 +9008,7 @@
       <c r="H364" s="154"/>
       <c r="I364" s="154"/>
     </row>
-    <row r="365" spans="1:9">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A365" s="154"/>
       <c r="B365" s="155"/>
       <c r="E365" s="154"/>
@@ -9135,7 +9017,7 @@
       <c r="H365" s="154"/>
       <c r="I365" s="154"/>
     </row>
-    <row r="366" spans="1:9">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A366" s="154"/>
       <c r="B366" s="155"/>
       <c r="E366" s="154"/>
@@ -9144,7 +9026,7 @@
       <c r="H366" s="154"/>
       <c r="I366" s="154"/>
     </row>
-    <row r="367" spans="1:9">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A367" s="154"/>
       <c r="B367" s="155"/>
       <c r="E367" s="154"/>
@@ -9153,7 +9035,7 @@
       <c r="H367" s="154"/>
       <c r="I367" s="154"/>
     </row>
-    <row r="368" spans="1:9">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A368" s="154"/>
       <c r="B368" s="155"/>
       <c r="E368" s="154"/>
@@ -9162,7 +9044,7 @@
       <c r="H368" s="154"/>
       <c r="I368" s="154"/>
     </row>
-    <row r="369" spans="1:9">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A369" s="154"/>
       <c r="B369" s="155"/>
       <c r="E369" s="154"/>
@@ -9171,7 +9053,7 @@
       <c r="H369" s="154"/>
       <c r="I369" s="154"/>
     </row>
-    <row r="370" spans="1:9">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A370" s="154"/>
       <c r="B370" s="155"/>
       <c r="E370" s="154"/>
@@ -9180,7 +9062,7 @@
       <c r="H370" s="154"/>
       <c r="I370" s="154"/>
     </row>
-    <row r="371" spans="1:9">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A371" s="154"/>
       <c r="B371" s="155"/>
       <c r="E371" s="154"/>
@@ -9189,7 +9071,7 @@
       <c r="H371" s="154"/>
       <c r="I371" s="154"/>
     </row>
-    <row r="372" spans="1:9">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A372" s="154"/>
       <c r="B372" s="155"/>
       <c r="E372" s="154"/>
@@ -9198,7 +9080,7 @@
       <c r="H372" s="154"/>
       <c r="I372" s="154"/>
     </row>
-    <row r="373" spans="1:9">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A373" s="154"/>
       <c r="B373" s="155"/>
       <c r="E373" s="154"/>
@@ -9207,7 +9089,7 @@
       <c r="H373" s="154"/>
       <c r="I373" s="154"/>
     </row>
-    <row r="374" spans="1:9">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A374" s="154"/>
       <c r="B374" s="155"/>
       <c r="E374" s="154"/>
@@ -9216,7 +9098,7 @@
       <c r="H374" s="154"/>
       <c r="I374" s="154"/>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A375" s="154"/>
       <c r="B375" s="155"/>
       <c r="E375" s="154"/>
@@ -9225,7 +9107,7 @@
       <c r="H375" s="154"/>
       <c r="I375" s="154"/>
     </row>
-    <row r="376" spans="1:9">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A376" s="154"/>
       <c r="B376" s="155"/>
       <c r="E376" s="154"/>
@@ -9234,37 +9116,37 @@
       <c r="H376" s="154"/>
       <c r="I376" s="154"/>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A377" s="154"/>
       <c r="B377" s="155"/>
       <c r="E377" s="154">
         <v>12705</v>
       </c>
       <c r="F377" s="154" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G377" s="154" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H377" s="154"/>
       <c r="I377" s="154"/>
     </row>
-    <row r="378" spans="1:9">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A378" s="154"/>
       <c r="B378" s="155"/>
       <c r="E378" s="154">
         <v>11571.03825</v>
       </c>
       <c r="F378" s="154" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G378" s="154" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H378" s="154"/>
       <c r="I378" s="154"/>
     </row>
-    <row r="379" spans="1:9">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A379" s="154"/>
       <c r="B379" s="155"/>
       <c r="E379" s="154"/>
@@ -9273,7 +9155,7 @@
       <c r="H379" s="154"/>
       <c r="I379" s="154"/>
     </row>
-    <row r="380" spans="1:9">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A380" s="154"/>
       <c r="B380" s="155"/>
       <c r="E380" s="154"/>
@@ -9282,7 +9164,7 @@
       <c r="H380" s="154"/>
       <c r="I380" s="154"/>
     </row>
-    <row r="381" spans="1:9">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A381" s="154"/>
       <c r="B381" s="155"/>
       <c r="E381" s="154"/>
@@ -9291,7 +9173,7 @@
       <c r="H381" s="154"/>
       <c r="I381" s="154"/>
     </row>
-    <row r="382" spans="1:9">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A382" s="154"/>
       <c r="B382" s="155"/>
       <c r="E382" s="154"/>
@@ -9300,7 +9182,7 @@
       <c r="H382" s="154"/>
       <c r="I382" s="154"/>
     </row>
-    <row r="383" spans="1:9">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A383" s="154"/>
       <c r="B383" s="155"/>
       <c r="E383" s="154"/>
@@ -9309,7 +9191,7 @@
       <c r="H383" s="154"/>
       <c r="I383" s="154"/>
     </row>
-    <row r="384" spans="1:9">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A384" s="154"/>
       <c r="B384" s="155"/>
       <c r="E384" s="154"/>
@@ -9318,7 +9200,7 @@
       <c r="H384" s="154"/>
       <c r="I384" s="154"/>
     </row>
-    <row r="385" spans="1:9">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A385" s="154"/>
       <c r="B385" s="155"/>
       <c r="E385" s="154"/>
@@ -9327,7 +9209,7 @@
       <c r="H385" s="154"/>
       <c r="I385" s="154"/>
     </row>
-    <row r="386" spans="1:9">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A386" s="154"/>
       <c r="B386" s="155"/>
       <c r="E386" s="154"/>
@@ -9336,7 +9218,7 @@
       <c r="H386" s="154"/>
       <c r="I386" s="154"/>
     </row>
-    <row r="387" spans="1:9">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A387" s="154"/>
       <c r="B387" s="155"/>
       <c r="E387" s="154"/>
@@ -9345,7 +9227,7 @@
       <c r="H387" s="154"/>
       <c r="I387" s="154"/>
     </row>
-    <row r="388" spans="1:9">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A388" s="154"/>
       <c r="B388" s="155"/>
       <c r="E388" s="154"/>
@@ -9354,7 +9236,7 @@
       <c r="H388" s="154"/>
       <c r="I388" s="154"/>
     </row>
-    <row r="389" spans="1:9">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A389" s="154"/>
       <c r="B389" s="155"/>
       <c r="E389" s="154"/>
@@ -9363,7 +9245,7 @@
       <c r="H389" s="154"/>
       <c r="I389" s="154"/>
     </row>
-    <row r="390" spans="1:9">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A390" s="154"/>
       <c r="B390" s="155"/>
       <c r="E390" s="154"/>
@@ -9372,7 +9254,7 @@
       <c r="H390" s="154"/>
       <c r="I390" s="154"/>
     </row>
-    <row r="391" spans="1:9">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A391" s="154"/>
       <c r="B391" s="155"/>
       <c r="E391" s="154"/>
@@ -9381,7 +9263,7 @@
       <c r="H391" s="154"/>
       <c r="I391" s="154"/>
     </row>
-    <row r="392" spans="1:9">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A392" s="154"/>
       <c r="B392" s="155"/>
       <c r="E392" s="154"/>
@@ -9390,147 +9272,147 @@
       <c r="H392" s="154"/>
       <c r="I392" s="154"/>
     </row>
-    <row r="393" spans="1:9">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E393" s="154"/>
       <c r="F393" s="154"/>
       <c r="G393" s="154"/>
       <c r="H393" s="154"/>
       <c r="I393" s="154"/>
     </row>
-    <row r="394" spans="1:9">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E394" s="154"/>
       <c r="F394" s="154"/>
       <c r="G394" s="154"/>
       <c r="H394" s="154"/>
       <c r="I394" s="154"/>
     </row>
-    <row r="395" spans="1:9">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E395" s="154"/>
       <c r="F395" s="154"/>
       <c r="G395" s="154"/>
       <c r="H395" s="154"/>
       <c r="I395" s="154"/>
     </row>
-    <row r="396" spans="1:9">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E396" s="154"/>
       <c r="F396" s="154"/>
       <c r="G396" s="154"/>
       <c r="H396" s="154"/>
       <c r="I396" s="154"/>
     </row>
-    <row r="397" spans="1:9">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E397" s="154"/>
       <c r="F397" s="154"/>
       <c r="G397" s="154"/>
       <c r="H397" s="154"/>
       <c r="I397" s="154"/>
     </row>
-    <row r="398" spans="1:9">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E398" s="154"/>
       <c r="F398" s="154"/>
       <c r="G398" s="154"/>
       <c r="H398" s="154"/>
       <c r="I398" s="154"/>
     </row>
-    <row r="399" spans="1:9">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E399" s="154"/>
       <c r="F399" s="154"/>
       <c r="G399" s="154"/>
       <c r="H399" s="154"/>
       <c r="I399" s="154"/>
     </row>
-    <row r="400" spans="1:9">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E400" s="154"/>
       <c r="F400" s="154"/>
       <c r="G400" s="154"/>
       <c r="H400" s="154"/>
       <c r="I400" s="154"/>
     </row>
-    <row r="401" spans="5:9">
+    <row r="401" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E401" s="154"/>
       <c r="F401" s="154"/>
       <c r="G401" s="154"/>
       <c r="H401" s="154"/>
       <c r="I401" s="154"/>
     </row>
-    <row r="402" spans="5:9">
+    <row r="402" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E402" s="154"/>
       <c r="F402" s="154"/>
       <c r="G402" s="154"/>
       <c r="H402" s="154"/>
       <c r="I402" s="154"/>
     </row>
-    <row r="403" spans="5:9">
+    <row r="403" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E403" s="154"/>
       <c r="F403" s="154"/>
       <c r="G403" s="154"/>
       <c r="H403" s="154"/>
       <c r="I403" s="154"/>
     </row>
-    <row r="404" spans="5:9">
+    <row r="404" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E404" s="154">
         <v>4502</v>
       </c>
       <c r="F404" s="154" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G404" s="154" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H404" s="154"/>
       <c r="I404" s="154"/>
     </row>
-    <row r="405" spans="5:9">
+    <row r="405" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E405" s="154">
         <v>4100.1821490000002</v>
       </c>
       <c r="F405" s="154" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G405" s="154" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H405" s="154"/>
       <c r="I405" s="154"/>
     </row>
-    <row r="406" spans="5:9">
+    <row r="406" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E406" s="154"/>
       <c r="F406" s="154"/>
       <c r="G406" s="154" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H406" s="154"/>
       <c r="I406" s="154"/>
     </row>
-    <row r="407" spans="5:9">
+    <row r="407" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E407" s="154"/>
       <c r="F407" s="154"/>
       <c r="G407" s="154"/>
       <c r="H407" s="154"/>
       <c r="I407" s="154"/>
     </row>
-    <row r="408" spans="5:9">
+    <row r="408" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E408" s="154">
         <v>3.0636599999999997E-4</v>
       </c>
       <c r="F408" s="154" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G408" s="154" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H408" s="154"/>
       <c r="I408" s="154"/>
     </row>
-    <row r="409" spans="5:9">
+    <row r="409" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E409" s="154">
         <v>0.54425270100000001</v>
       </c>
       <c r="F409" s="154" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G409" s="154" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H409" s="154"/>
       <c r="I409" s="154"/>
@@ -9539,10 +9421,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>